--- a/MoneyTracking.xlsx
+++ b/MoneyTracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -91,7 +91,28 @@
     <t>99 Ranch</t>
   </si>
   <si>
+    <t>Chick-Fil-A</t>
+  </si>
+  <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Costco</t>
+  </si>
+  <si>
+    <t>168 Market</t>
+  </si>
+  <si>
+    <t>Shopping &amp; Entertainment</t>
+  </si>
+  <si>
+    <t>FFXIV</t>
   </si>
   <si>
     <t>Saving</t>
@@ -101,6 +122,12 @@
   </si>
   <si>
     <t>Amazon</t>
+  </si>
+  <si>
+    <t>NTD</t>
+  </si>
+  <si>
+    <t>台北富邦</t>
   </si>
   <si>
     <t>FromBank</t>
@@ -136,15 +163,6 @@
     <t>Income Catagory</t>
   </si>
   <si>
-    <t>NTD</t>
-  </si>
-  <si>
-    <t>台北富邦</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
     <t>Deposits</t>
   </si>
   <si>
@@ -152,9 +170,6 @@
   </si>
   <si>
     <t>Interest</t>
-  </si>
-  <si>
-    <t>Shopping &amp; Entertainment</t>
   </si>
   <si>
     <t>Cash,Check &amp; Misc</t>
@@ -729,7 +744,7 @@
       <c r="G9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
         <v>13</v>
       </c>
@@ -756,7 +771,7 @@
       <c r="G10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
         <v>13</v>
       </c>
@@ -809,7 +824,7 @@
       <c r="G12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
         <v>13</v>
       </c>
@@ -836,57 +851,144 @@
       <c r="G13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="I13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="A14" s="3">
+        <v>43992.0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4">
+        <v>15.93</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="3">
+        <v>43993.0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4">
+        <v>21.75</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="A16" s="3">
+        <v>43993.0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4">
+        <v>66.02</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="I16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="A17" s="3">
+        <v>43993.0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4">
+        <v>23.11</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="A18" s="3">
+        <v>43994.0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5"/>
@@ -9726,30 +9828,39 @@
       <c r="F1000" s="5"/>
       <c r="I1000" s="5"/>
     </row>
+    <row r="1001">
+      <c r="A1001" s="5"/>
+      <c r="B1001" s="5"/>
+      <c r="C1001" s="5"/>
+      <c r="D1001" s="5"/>
+      <c r="E1001" s="5"/>
+      <c r="F1001" s="5"/>
+      <c r="I1001" s="5"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I1000">
+    <dataValidation type="list" allowBlank="1" sqref="I2:I1001">
       <formula1>Items!$F$2:$F$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F1000">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F1001">
       <formula1>"Home &amp; Utilities,Transportation,Groceries,Restaurants &amp; Dining,Shopping &amp; Entertainment,Cash,Check &amp; Misc,Finance,Init,Transfer"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="B2">
       <formula1>Items!$A$2:$A$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1000">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1001">
       <formula1>Items!$C$2:$C$1000</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A1000">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A1001">
       <formula1>OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B3:B1000">
+    <dataValidation type="list" allowBlank="1" sqref="B3:B1001">
       <formula1>"USD,NTD"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E1000">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E1001">
       <formula1>0.0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1000">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C1001">
       <formula1>Items!$B$2:$B$1000</formula1>
     </dataValidation>
   </dataValidations>
@@ -9847,7 +9958,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E3" s="4">
         <v>18000.44</v>
@@ -9874,27 +9985,55 @@
         <v>1511.51</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="A5" s="3">
+        <v>43986.0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4614.0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="A6" s="3">
+        <v>43994.0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2736.82</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5"/>
@@ -17856,36 +17995,44 @@
       <c r="E1001" s="5"/>
       <c r="F1001" s="5"/>
     </row>
+    <row r="1002">
+      <c r="A1002" s="5"/>
+      <c r="B1002" s="5"/>
+      <c r="C1002" s="5"/>
+      <c r="D1002" s="5"/>
+      <c r="E1002" s="5"/>
+      <c r="F1002" s="5"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F1000">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F1001">
       <formula1>Items!$E$2:$E$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B2:B1000">
+    <dataValidation type="list" allowBlank="1" sqref="B2:B1001">
       <formula1>Items!$A$2:$A$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1000">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1001">
       <formula1>Items!$C$2:$C$1000</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A1001">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A1002">
       <formula1>OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C1001">
+    <dataValidation type="list" allowBlank="1" sqref="C1002">
       <formula1>"BOA,台北富邦"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B1001">
+    <dataValidation type="list" allowBlank="1" sqref="B1002">
       <formula1>"USD,NTD"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E1001">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E1002">
       <formula1>0.0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1000">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C1001">
       <formula1>Items!$B$2:$B$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F1001">
+    <dataValidation type="list" allowBlank="1" sqref="F1002">
       <formula1>"Paycheck/Salary,Deposits,Interest,Init,Transfer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D1001">
+    <dataValidation type="list" allowBlank="1" sqref="D1002">
       <formula1>"Checking,Saving,CreditCard,Cash"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17908,28 +18055,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -17966,8 +18113,8 @@
       <c r="I2" s="4">
         <v>418.87</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>37</v>
+      <c r="J2" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>13</v>
@@ -27012,10 +27159,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -27055,7 +27202,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
@@ -27063,24 +27210,24 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
@@ -27089,12 +27236,12 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
@@ -27105,17 +27252,17 @@
     </row>
     <row r="6">
       <c r="D6" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">

--- a/MoneyTracking.xlsx
+++ b/MoneyTracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -85,16 +85,13 @@
     <t>Electricity,PG&amp;E</t>
   </si>
   <si>
-    <t>Sprout</t>
+    <t>Sprouts</t>
   </si>
   <si>
     <t>99 Ranch</t>
   </si>
   <si>
     <t>Chick-Fil-A</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t>Transportation</t>
@@ -109,13 +106,175 @@
     <t>168 Market</t>
   </si>
   <si>
+    <t>Taiwan Shih</t>
+  </si>
+  <si>
+    <t>H Mart</t>
+  </si>
+  <si>
+    <t>NTD</t>
+  </si>
+  <si>
+    <t>台北富邦</t>
+  </si>
+  <si>
+    <t>CHT</t>
+  </si>
+  <si>
     <t>Shopping &amp; Entertainment</t>
   </si>
   <si>
-    <t>FFXIV</t>
+    <t>Netflex</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>Amazon Prime</t>
+  </si>
+  <si>
+    <t>Co Co</t>
+  </si>
+  <si>
+    <t>Square Enix</t>
+  </si>
+  <si>
+    <t>TJ Maxx</t>
+  </si>
+  <si>
+    <t>Trader Joe's</t>
+  </si>
+  <si>
+    <t>Sizzling Stone</t>
+  </si>
+  <si>
+    <t>Rental</t>
+  </si>
+  <si>
+    <t>Conservice total: 138.59 (Common area:17.18,Service fee4.55, sewer:32.82,trash:39.21, water:44.83)</t>
+  </si>
+  <si>
+    <t>Mitsuwa</t>
+  </si>
+  <si>
+    <t>Cash,Check &amp; Misc</t>
+  </si>
+  <si>
+    <t>I-20 shipping</t>
+  </si>
+  <si>
+    <t>Ten Ren Tea</t>
+  </si>
+  <si>
+    <t>Pet</t>
+  </si>
+  <si>
+    <t>PetSmart</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>Pet Food Express</t>
+  </si>
+  <si>
+    <t>Wholefood</t>
+  </si>
+  <si>
+    <t>The Market at North PA</t>
   </si>
   <si>
     <t>Saving</t>
+  </si>
+  <si>
+    <t>SJSU Tuition</t>
+  </si>
+  <si>
+    <t>Evergreen Pet Clinic</t>
+  </si>
+  <si>
+    <t>Sheng Kee Barkey</t>
+  </si>
+  <si>
+    <t>ShareTea</t>
+  </si>
+  <si>
+    <t>Lowe's</t>
+  </si>
+  <si>
+    <t>TOUS LES JOURS</t>
+  </si>
+  <si>
+    <t>Hunan Impression</t>
+  </si>
+  <si>
+    <t>Cell phone bill</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>元大 Bill 預繳</t>
+  </si>
+  <si>
+    <t>富邦 Bill</t>
+  </si>
+  <si>
+    <t>Fax Plus</t>
+  </si>
+  <si>
+    <t>5.99 + 0.17 foreign transaction fee</t>
+  </si>
+  <si>
+    <t>Lemonade Insurance</t>
+  </si>
+  <si>
+    <t>Costco Gas</t>
+  </si>
+  <si>
+    <t>Trarget</t>
+  </si>
+  <si>
+    <t>North Park</t>
+  </si>
+  <si>
+    <t>Credit Card - Evelyn</t>
+  </si>
+  <si>
+    <t>Chewy</t>
+  </si>
+  <si>
+    <t>Cat tree, shampoo, seat cover and e-collar</t>
+  </si>
+  <si>
+    <t>TjMax</t>
+  </si>
+  <si>
+    <t>SoFi</t>
+  </si>
+  <si>
+    <t>Application fee</t>
+  </si>
+  <si>
+    <t>me, Evelyn and Mendy</t>
+  </si>
+  <si>
+    <t>Tea Spoon</t>
+  </si>
+  <si>
+    <t>Doordash</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Personal driving coach</t>
+  </si>
+  <si>
+    <t>Nintendo YsVIII</t>
+  </si>
+  <si>
+    <t>IKEA</t>
   </si>
   <si>
     <t>Paycheck/Salary</t>
@@ -124,10 +283,28 @@
     <t>Amazon</t>
   </si>
   <si>
-    <t>NTD</t>
+    <t>Deposits</t>
   </si>
   <si>
-    <t>台北富邦</t>
+    <t>Tax refund</t>
+  </si>
+  <si>
+    <t>讀冊</t>
+  </si>
+  <si>
+    <t>Home (20000 - 20 - 15 wire transfer fee)</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>0.17 - 0.04 Federal withholding</t>
+  </si>
+  <si>
+    <t>Rakuten</t>
+  </si>
+  <si>
+    <t>Home (30000 - 20  - 15 wire transfer fee)</t>
   </si>
   <si>
     <t>FromBank</t>
@@ -162,30 +339,14 @@
   <si>
     <t>Income Catagory</t>
   </si>
-  <si>
-    <t>Deposits</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>Cash,Check &amp; Misc</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -256,11 +417,11 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -874,11 +1035,8 @@
       <c r="F14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>13</v>
@@ -901,10 +1059,10 @@
         <v>21.75</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -928,7 +1086,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -952,10 +1110,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>13</v>
@@ -963,7 +1118,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>43994.0</v>
+        <v>43996.0</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>9</v>
@@ -975,857 +1130,2413 @@
         <v>11</v>
       </c>
       <c r="E18" s="4">
-        <v>14.99</v>
+        <v>36.78</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="A19" s="3">
+        <v>43997.0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="4">
+        <v>41.3</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="A20" s="3">
+        <v>43997.0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4">
+        <v>62.37</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="A21" s="3">
+        <v>43999.0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="4">
+        <v>199.0</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="I21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="A22" s="3">
+        <v>43999.0</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="4">
+        <v>396.0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="I22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="A23" s="3">
+        <v>43999.0</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="4">
+        <v>244.0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="I23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="A24" s="3">
+        <v>43999.0</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="4">
+        <v>217.0</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="I24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="A25" s="3">
+        <v>43999.0</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="4">
+        <v>12.75</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="A26" s="3">
+        <v>43999.0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="A27" s="3">
+        <v>44001.0</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="4">
+        <v>33.52</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="A28" s="3">
+        <v>44001.0</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="4">
+        <v>31.34</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="A29" s="3">
+        <v>44002.0</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="4">
+        <v>35.59</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="A30" s="3">
+        <v>44002.0</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="4">
+        <v>8.44</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="A31" s="3">
+        <v>44003.0</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="4">
+        <v>5.44</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="A32" s="3">
+        <v>44004.0</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="4">
+        <v>17.75</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="A33" s="3">
+        <v>44005.0</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="4">
+        <v>68.86</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="A34" s="3">
+        <v>44006.0</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="4">
+        <v>26.2</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="A35" s="3">
+        <v>44006.0</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="4">
+        <v>21.37</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="I36" s="5"/>
+      <c r="A36" s="3">
+        <v>44008.0</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="4">
+        <v>14.44</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="A37" s="3">
+        <v>44008.0</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="4">
+        <v>53.38</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="A38" s="3">
+        <v>44010.0</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="4">
+        <v>8.11</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="A39" s="3">
+        <v>44011.0</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1854.59</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="I39" s="5"/>
+      <c r="J39" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="A40" s="3">
+        <v>44012.0</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="4">
+        <v>31.34</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="A41" s="3">
+        <v>44012.0</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="4">
+        <v>26.34</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="I42" s="5"/>
+      <c r="A42" s="3">
+        <v>44013.0</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="4">
+        <v>26.94</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="A43" s="3">
+        <v>44013.0</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="4">
+        <v>33.94</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="I43" s="5"/>
     </row>
     <row r="44">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="I44" s="5"/>
+      <c r="A44" s="3">
+        <v>44014.0</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="4">
+        <v>37.71</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="I45" s="5"/>
+      <c r="A45" s="3">
+        <v>44015.0</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="4">
+        <v>36.13</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="I46" s="5"/>
+      <c r="A46" s="3">
+        <v>44015.0</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="4">
+        <v>69.29</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="I47" s="5"/>
+      <c r="A47" s="3">
+        <v>44016.0</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="4">
+        <v>75.46</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="I48" s="5"/>
+      <c r="A48" s="3">
+        <v>44017.0</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2.59</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="I49" s="5"/>
+      <c r="A49" s="3">
+        <v>44017.0</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="A50" s="3">
+        <v>44019.0</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="4">
+        <v>70.83</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="I51" s="5"/>
+      <c r="A51" s="3">
+        <v>44019.0</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="4">
+        <v>185.24</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="I52" s="5"/>
+      <c r="A52" s="3">
+        <v>44020.0</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="I53" s="5"/>
+      <c r="A53" s="3">
+        <v>44020.0</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="4">
+        <v>94.11</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="I54" s="5"/>
+      <c r="A54" s="3">
+        <v>44020.0</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="4">
+        <f>47.37-5.5</f>
+        <v>41.87</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="I55" s="5"/>
+      <c r="A55" s="3">
+        <v>44021.0</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="4">
+        <v>46.51</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="I56" s="5"/>
+      <c r="A56" s="3">
+        <v>44022.0</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="4">
+        <v>14.97</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="I57" s="5"/>
+      <c r="A57" s="3">
+        <v>44022.0</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="4">
+        <v>25.07</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="I58" s="5"/>
+      <c r="A58" s="3">
+        <v>44022.0</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="4">
+        <v>30.14</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" s="4"/>
     </row>
     <row r="59">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="I59" s="5"/>
+      <c r="A59" s="3">
+        <v>44022.0</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="4">
+        <v>13.22</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="I60" s="5"/>
+      <c r="A60" s="3">
+        <v>44023.0</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="4">
+        <v>6.24</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="I61" s="5"/>
+      <c r="A61" s="3">
+        <v>44023.0</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="4">
+        <v>35.59</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="I62" s="5"/>
+      <c r="A62" s="3">
+        <v>44023.0</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="4">
+        <v>10.66</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="I63" s="5"/>
+      <c r="A63" s="3">
+        <v>44024.0</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="I64" s="5"/>
+      <c r="A64" s="3">
+        <v>44024.0</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="4">
+        <v>30.52</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
+      <c r="A65" s="3">
+        <v>44025.0</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="4">
+        <v>88.67</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="I65" s="5"/>
     </row>
     <row r="66">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
+      <c r="A66" s="3">
+        <v>44025.0</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="4">
+        <v>25.16</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="I66" s="5"/>
     </row>
     <row r="67">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="I67" s="5"/>
+      <c r="A67" s="3">
+        <v>44029.0</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="4">
+        <v>74.31</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="I68" s="5"/>
+      <c r="A68" s="3">
+        <v>44029.0</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E68" s="4">
+        <v>10000.0</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I68" s="4"/>
     </row>
     <row r="69">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="I69" s="5"/>
+      <c r="A69" s="3">
+        <v>44030.0</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="I70" s="5"/>
+      <c r="A70" s="3">
+        <v>44030.0</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="4">
+        <v>35.59</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="I71" s="5"/>
+      <c r="A71" s="3">
+        <v>44031.0</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="4">
+        <v>8.69</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="I72" s="5"/>
+      <c r="A72" s="3">
+        <v>44033.0</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="4">
+        <v>30.51</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="I73" s="5"/>
+      <c r="A73" s="3">
+        <v>44033.0</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="I74" s="5"/>
+      <c r="A74" s="3">
+        <v>44033.0</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="4">
+        <v>5.99</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="I75" s="5"/>
+      <c r="A75" s="3">
+        <v>44037.0</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="4">
+        <v>8.72</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="I76" s="5"/>
+      <c r="A76" s="3">
+        <v>44037.0</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="4">
+        <v>55.17</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="I77" s="5"/>
+      <c r="A77" s="3">
+        <v>44038.0</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="4">
+        <v>43.77</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="I78" s="5"/>
+      <c r="A78" s="3">
+        <v>44038.0</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="4">
+        <v>61.13</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="I79" s="5"/>
+      <c r="A79" s="3">
+        <v>44038.0</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="I80" s="5"/>
+      <c r="A80" s="3">
+        <v>44038.0</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="4">
+        <v>28.6</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="I81" s="5"/>
+      <c r="A81" s="3">
+        <v>44038.0</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="4">
+        <v>52.44</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
+      <c r="A82" s="3">
+        <v>44039.0</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="4">
+        <v>199.0</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="I82" s="5"/>
     </row>
     <row r="83">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
+      <c r="A83" s="3">
+        <v>44039.0</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="4">
+        <v>510.0</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I83" s="5"/>
     </row>
     <row r="84">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
+      <c r="A84" s="3">
+        <v>44039.0</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="4">
+        <v>836.0</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="I84" s="5"/>
     </row>
     <row r="85">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="I85" s="5"/>
+      <c r="A85" s="3">
+        <v>44039.0</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="4">
+        <v>6.16</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="I86" s="5"/>
+      <c r="A86" s="3">
+        <v>44042.0</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="I87" s="5"/>
+      <c r="A87" s="3">
+        <v>44042.0</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="4">
+        <v>16.86</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
+      <c r="A88" s="3">
+        <v>44043.0</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="4">
+        <v>29.7</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="I88" s="5"/>
     </row>
     <row r="89">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
+      <c r="A89" s="3">
+        <v>44043.0</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" s="4">
+        <v>43.58</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I89" s="5"/>
     </row>
     <row r="90">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="I90" s="5"/>
+      <c r="A90" s="3">
+        <v>44043.0</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="I91" s="5"/>
+      <c r="A91" s="3">
+        <v>44043.0</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="4">
+        <v>78.1</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="I92" s="5"/>
+      <c r="A92" s="3">
+        <v>44043.0</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="I93" s="5"/>
+      <c r="A93" s="3">
+        <v>44043.0</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1853.46</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I93" s="4"/>
     </row>
     <row r="94">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="I94" s="5"/>
+      <c r="A94" s="3">
+        <v>44044.0</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="4">
+        <v>35.59</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="I95" s="5"/>
+      <c r="A95" s="3">
+        <v>44044.0</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="4">
+        <v>7.16</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="I96" s="5"/>
+      <c r="A96" s="3">
+        <v>44045.0</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="4">
+        <v>77.91</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I96" s="4"/>
     </row>
     <row r="97">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
+      <c r="A97" s="3">
+        <v>44045.0</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E97" s="4">
+        <v>122.6</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="I97" s="5"/>
+      <c r="J97" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="I98" s="5"/>
+      <c r="A98" s="3">
+        <v>44047.0</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="4">
+        <v>30.47</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="I99" s="5"/>
+      <c r="A99" s="3">
+        <v>44047.0</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="4">
+        <v>37.44</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="I100" s="5"/>
+      <c r="A100" s="3">
+        <v>44050.0</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="4">
+        <v>52.46</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="I101" s="5"/>
+      <c r="A101" s="3">
+        <v>44050.0</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="4">
+        <v>38.13</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="I102" s="5"/>
+      <c r="A102" s="3">
+        <v>44050.0</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="4">
+        <v>43.87</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="I103" s="5"/>
+      <c r="A103" s="3">
+        <v>44051.0</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="4">
+        <v>22.3</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="I104" s="5"/>
+      <c r="A104" s="3">
+        <v>44051.0</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="4">
+        <v>111.54</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="I105" s="5"/>
+      <c r="A105" s="3">
+        <v>44051.0</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="4">
+        <v>11.19</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="I106" s="5"/>
+      <c r="A106" s="7">
+        <v>44052.0</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="4">
+        <v>45.1</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="I107" s="5"/>
+      <c r="A107" s="3">
+        <v>44052.0</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E107" s="4">
+        <v>205.0</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I107" s="4"/>
     </row>
     <row r="108">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="I108" s="5"/>
+      <c r="A108" s="3">
+        <v>44053.0</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="4">
+        <v>28.77</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="I109" s="5"/>
+      <c r="A109" s="3">
+        <v>44053.0</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="4">
+        <v>70.5</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="I110" s="5"/>
+      <c r="A110" s="3">
+        <v>44054.0</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="4">
+        <v>48.5</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="I111" s="5"/>
+      <c r="A111" s="3">
+        <v>44054.0</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="4">
+        <v>32.83</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="5"/>
@@ -9837,31 +11548,103 @@
       <c r="F1001" s="5"/>
       <c r="I1001" s="5"/>
     </row>
+    <row r="1002">
+      <c r="A1002" s="5"/>
+      <c r="B1002" s="5"/>
+      <c r="C1002" s="5"/>
+      <c r="D1002" s="5"/>
+      <c r="E1002" s="5"/>
+      <c r="F1002" s="5"/>
+      <c r="I1002" s="5"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="5"/>
+      <c r="B1003" s="5"/>
+      <c r="C1003" s="5"/>
+      <c r="D1003" s="5"/>
+      <c r="E1003" s="5"/>
+      <c r="F1003" s="5"/>
+      <c r="I1003" s="5"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="5"/>
+      <c r="B1004" s="5"/>
+      <c r="C1004" s="5"/>
+      <c r="D1004" s="5"/>
+      <c r="E1004" s="5"/>
+      <c r="F1004" s="5"/>
+      <c r="I1004" s="5"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="5"/>
+      <c r="B1005" s="5"/>
+      <c r="C1005" s="5"/>
+      <c r="D1005" s="5"/>
+      <c r="E1005" s="5"/>
+      <c r="F1005" s="5"/>
+      <c r="I1005" s="5"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="5"/>
+      <c r="B1006" s="5"/>
+      <c r="C1006" s="5"/>
+      <c r="D1006" s="5"/>
+      <c r="E1006" s="5"/>
+      <c r="F1006" s="5"/>
+      <c r="I1006" s="5"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="5"/>
+      <c r="B1007" s="5"/>
+      <c r="C1007" s="5"/>
+      <c r="D1007" s="5"/>
+      <c r="E1007" s="5"/>
+      <c r="F1007" s="5"/>
+      <c r="I1007" s="5"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="5"/>
+      <c r="B1008" s="5"/>
+      <c r="C1008" s="5"/>
+      <c r="D1008" s="5"/>
+      <c r="E1008" s="5"/>
+      <c r="F1008" s="5"/>
+      <c r="I1008" s="5"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="5"/>
+      <c r="B1009" s="5"/>
+      <c r="C1009" s="5"/>
+      <c r="D1009" s="5"/>
+      <c r="E1009" s="5"/>
+      <c r="F1009" s="5"/>
+      <c r="I1009" s="5"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I1001">
+    <dataValidation type="list" allowBlank="1" sqref="I2:I1009">
       <formula1>Items!$F$2:$F$1000</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F1001">
-      <formula1>"Home &amp; Utilities,Transportation,Groceries,Restaurants &amp; Dining,Shopping &amp; Entertainment,Cash,Check &amp; Misc,Finance,Init,Transfer"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="B2">
       <formula1>Items!$A$2:$A$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1001">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1009">
       <formula1>Items!$C$2:$C$1000</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A1001">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A105 A107:A1009">
       <formula1>OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B3:B1001">
+    <dataValidation type="list" allowBlank="1" sqref="B3:B1009">
       <formula1>"USD,NTD"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E1001">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E105 E107:E1009">
       <formula1>0.0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1001">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C1009">
       <formula1>Items!$B$2:$B$1000</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F2:F1009">
+      <formula1>Items!$D$2:$D$10</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -9944,8 +11727,8 @@
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3">
       <c r="A3" s="3">
@@ -9958,7 +11741,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E3" s="4">
         <v>18000.44</v>
@@ -9985,10 +11768,10 @@
         <v>1511.51</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -9996,10 +11779,10 @@
         <v>43986.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>19</v>
@@ -10029,91 +11812,241 @@
         <v>2736.82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="A7" s="3">
+        <v>44008.0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2736.8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="A8" s="3">
+        <v>44012.0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4">
+        <v>977.0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="A9" s="3">
+        <v>44013.0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3036.0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="A10" s="3">
+        <v>44022.0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2736.82</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="3">
+        <v>44032.0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4">
+        <v>19965.0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="A12" s="3">
+        <v>44035.0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="A13" s="3">
+        <v>44036.0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2736.81</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="A14" s="3">
+        <v>44042.0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="4">
+        <v>10.55</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="3">
+        <v>44047.0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4">
+        <v>29965.0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="A16" s="3">
+        <v>44050.0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2736.8</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5"/>
@@ -18055,28 +19988,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -18114,99 +20047,302 @@
         <v>418.87</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
+      <c r="A3" s="3">
+        <v>43999.0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4">
+        <v>844.0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="4">
+        <v>844.0</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="K3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="A4" s="3">
+        <v>44013.0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4">
+        <v>700.0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4">
+        <v>700.0</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="A5" s="3">
+        <v>44013.0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3500.0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3500.0</v>
+      </c>
       <c r="K5" s="5"/>
     </row>
     <row r="6">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="A6" s="3">
+        <v>44025.0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4">
+        <v>800.0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="4">
+        <v>800.0</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="A7" s="3">
+        <v>44033.0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4">
+        <v>20000.0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="4">
+        <v>20000.0</v>
+      </c>
       <c r="K7" s="5"/>
     </row>
     <row r="8">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="A8" s="3">
+        <v>44048.0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4">
+        <v>32000.0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="4">
+        <v>32000.0</v>
+      </c>
       <c r="K8" s="5"/>
     </row>
     <row r="9">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="A9" s="3">
+        <v>44051.0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4">
+        <v>800.0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="4">
+        <v>800.0</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="A10" s="3">
+        <v>44051.0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4">
+        <v>260.0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="4">
+        <v>260.0</v>
+      </c>
       <c r="K10" s="5"/>
     </row>
     <row r="11">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="A11" s="3">
+        <v>44054.0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4">
+        <v>500.0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="4">
+        <v>500.0</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="5"/>
@@ -27120,7 +29256,7 @@
     <dataValidation type="list" allowBlank="1" sqref="C2:C1000 G2:G1000">
       <formula1>Items!$C$2:$C$1000</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A4">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A5">
       <formula1>OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D"))</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E4 I2:I4">
@@ -27159,10 +29295,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -27202,7 +29338,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
@@ -27210,24 +29346,24 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="4" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
@@ -27236,12 +29372,12 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
@@ -27251,23 +29387,31 @@
       </c>
     </row>
     <row r="6">
+      <c r="C6" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/MoneyTracking.xlsx
+++ b/MoneyTracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -283,6 +283,12 @@
     <t>Amazon</t>
   </si>
   <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>0.16 - 0.04 Federal withholding</t>
+  </si>
+  <si>
     <t>Deposits</t>
   </si>
   <si>
@@ -295,9 +301,6 @@
     <t>Home (20000 - 20 - 15 wire transfer fee)</t>
   </si>
   <si>
-    <t>Interest</t>
-  </si>
-  <si>
     <t>0.17 - 0.04 Federal withholding</t>
   </si>
   <si>
@@ -305,6 +308,12 @@
   </si>
   <si>
     <t>Home (30000 - 20  - 15 wire transfer fee)</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Redeem cash rewards</t>
   </si>
   <si>
     <t>FromBank</t>
@@ -399,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -415,9 +424,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
@@ -3059,7 +3065,7 @@
       <c r="F93" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G93" s="4" t="s">
         <v>73</v>
       </c>
       <c r="I93" s="4"/>
@@ -3293,7 +3299,7 @@
       <c r="F102" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G102" s="6" t="s">
+      <c r="G102" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I102" s="4" t="s">
@@ -3305,7 +3311,7 @@
     </row>
     <row r="103">
       <c r="A103" s="3">
-        <v>44051.0</v>
+        <v>44050.0</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>9</v>
@@ -3317,13 +3323,13 @@
         <v>11</v>
       </c>
       <c r="E103" s="4">
-        <v>22.3</v>
+        <v>31.43</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G103" s="4" t="s">
-        <v>81</v>
+      <c r="G103" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="I103" s="4" t="s">
         <v>13</v>
@@ -3343,13 +3349,13 @@
         <v>11</v>
       </c>
       <c r="E104" s="4">
-        <v>111.54</v>
+        <v>22.3</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="I104" s="4" t="s">
         <v>13</v>
@@ -3369,21 +3375,21 @@
         <v>11</v>
       </c>
       <c r="E105" s="4">
-        <v>11.19</v>
+        <v>111.54</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I105" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="7">
-        <v>44052.0</v>
+      <c r="A106" s="3">
+        <v>44051.0</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>9</v>
@@ -3395,19 +3401,16 @@
         <v>11</v>
       </c>
       <c r="E106" s="4">
-        <v>45.1</v>
+        <v>11.19</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="I106" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="107">
@@ -3421,22 +3424,27 @@
         <v>10</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="E107" s="4">
-        <v>205.0</v>
+        <v>45.1</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I107" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="3">
-        <v>44053.0</v>
+        <v>44052.0</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>9</v>
@@ -3445,20 +3453,18 @@
         <v>10</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="E108" s="4">
-        <v>28.77</v>
+        <v>205.0</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="I108" s="4"/>
     </row>
     <row r="109">
       <c r="A109" s="3">
@@ -3474,13 +3480,13 @@
         <v>11</v>
       </c>
       <c r="E109" s="4">
-        <v>70.5</v>
+        <v>28.77</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="I109" s="4" t="s">
         <v>13</v>
@@ -3488,7 +3494,7 @@
     </row>
     <row r="110">
       <c r="A110" s="3">
-        <v>44054.0</v>
+        <v>44053.0</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>9</v>
@@ -3500,13 +3506,13 @@
         <v>11</v>
       </c>
       <c r="E110" s="4">
-        <v>48.5</v>
+        <v>70.5</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="I110" s="4" t="s">
         <v>13</v>
@@ -3526,26 +3532,43 @@
         <v>11</v>
       </c>
       <c r="E111" s="4">
-        <v>32.83</v>
+        <v>48.5</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="I111" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="I112" s="5"/>
+      <c r="A112" s="3">
+        <v>44054.0</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="4">
+        <v>32.83</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="5"/>
@@ -11620,30 +11643,39 @@
       <c r="F1009" s="5"/>
       <c r="I1009" s="5"/>
     </row>
+    <row r="1010">
+      <c r="A1010" s="5"/>
+      <c r="B1010" s="5"/>
+      <c r="C1010" s="5"/>
+      <c r="D1010" s="5"/>
+      <c r="E1010" s="5"/>
+      <c r="F1010" s="5"/>
+      <c r="I1010" s="5"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I1009">
+    <dataValidation type="list" allowBlank="1" sqref="I2:I1010">
       <formula1>Items!$F$2:$F$1000</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="B2">
       <formula1>Items!$A$2:$A$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1009">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1010">
       <formula1>Items!$C$2:$C$1000</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A105 A107:A1009">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A106 A108:A1010">
       <formula1>OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B3:B1009">
+    <dataValidation type="list" allowBlank="1" sqref="B3:B1010">
       <formula1>"USD,NTD"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E105 E107:E1009">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E106 E108:E1010">
       <formula1>0.0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1009">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C1010">
       <formula1>Items!$B$2:$B$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F1009">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F1010">
       <formula1>Items!$D$2:$D$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -11727,8 +11759,8 @@
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="3">
@@ -11820,7 +11852,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>44008.0</v>
+        <v>44004.0</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -11829,44 +11861,44 @@
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E7" s="4">
-        <v>2736.8</v>
+        <v>0.12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>44012.0</v>
+        <v>44008.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="4">
-        <v>977.0</v>
+        <v>2736.8</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>44013.0</v>
+        <v>44012.0</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>32</v>
@@ -11878,41 +11910,41 @@
         <v>19</v>
       </c>
       <c r="E9" s="4">
-        <v>3036.0</v>
+        <v>977.0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>44022.0</v>
+        <v>44013.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="4">
-        <v>2736.82</v>
+        <v>3036.0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>44032.0</v>
+        <v>44022.0</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>9</v>
@@ -11924,18 +11956,18 @@
         <v>19</v>
       </c>
       <c r="E11" s="4">
-        <v>19965.0</v>
+        <v>2736.82</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>44035.0</v>
+        <v>44032.0</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>9</v>
@@ -11944,13 +11976,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E12" s="4">
-        <v>0.13</v>
+        <v>19965.0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>94</v>
@@ -11958,7 +11990,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>44036.0</v>
+        <v>44035.0</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>9</v>
@@ -11967,21 +11999,21 @@
         <v>10</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E13" s="4">
-        <v>2736.81</v>
+        <v>0.13</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>44042.0</v>
+        <v>44036.0</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>9</v>
@@ -11993,18 +12025,18 @@
         <v>19</v>
       </c>
       <c r="E14" s="4">
-        <v>10.55</v>
+        <v>2736.81</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>44047.0</v>
+        <v>44042.0</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>9</v>
@@ -12016,18 +12048,18 @@
         <v>19</v>
       </c>
       <c r="E15" s="4">
-        <v>29965.0</v>
+        <v>10.55</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>44050.0</v>
+        <v>44047.0</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>9</v>
@@ -12039,30 +12071,60 @@
         <v>19</v>
       </c>
       <c r="E16" s="4">
+        <v>29965.0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>44050.0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="4">
         <v>2736.8</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
     <row r="18">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="A18" s="3">
+        <v>44054.0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="4">
+        <v>23.15</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5"/>
@@ -19936,36 +19998,44 @@
       <c r="E1002" s="5"/>
       <c r="F1002" s="5"/>
     </row>
+    <row r="1003">
+      <c r="A1003" s="5"/>
+      <c r="B1003" s="5"/>
+      <c r="C1003" s="5"/>
+      <c r="D1003" s="5"/>
+      <c r="E1003" s="5"/>
+      <c r="F1003" s="5"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F1001">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F1002">
       <formula1>Items!$E$2:$E$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B2:B1001">
+    <dataValidation type="list" allowBlank="1" sqref="B2:B1002">
       <formula1>Items!$A$2:$A$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1001">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1002">
       <formula1>Items!$C$2:$C$1000</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A1002">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A1003">
       <formula1>OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C1002">
+    <dataValidation type="list" allowBlank="1" sqref="C1003">
       <formula1>"BOA,台北富邦"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B1002">
+    <dataValidation type="list" allowBlank="1" sqref="B1003">
       <formula1>"USD,NTD"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E1002">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E1003">
       <formula1>0.0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1001">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C1002">
       <formula1>Items!$B$2:$B$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F1002">
+    <dataValidation type="list" allowBlank="1" sqref="F1003">
       <formula1>"Paycheck/Salary,Deposits,Interest,Init,Transfer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D1002">
+    <dataValidation type="list" allowBlank="1" sqref="D1003">
       <formula1>"Checking,Saving,CreditCard,Cash"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19988,28 +20058,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -20047,7 +20117,7 @@
         <v>418.87</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>13</v>
@@ -20082,7 +20152,7 @@
         <v>844.0</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K3" s="5"/>
     </row>
@@ -20115,7 +20185,7 @@
         <v>700.0</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>13</v>
@@ -20180,7 +20250,7 @@
         <v>800.0</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>13</v>
@@ -20275,7 +20345,7 @@
         <v>800.0</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>13</v>
@@ -20300,7 +20370,9 @@
       <c r="F10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="H10" s="4" t="s">
         <v>9</v>
       </c>
@@ -20338,7 +20410,7 @@
         <v>500.0</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>13</v>
@@ -29295,10 +29367,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -29334,7 +29406,7 @@
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -29358,7 +29430,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
@@ -29372,7 +29444,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
@@ -29393,6 +29465,9 @@
       <c r="D6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="7">
       <c r="D7" s="4" t="s">
@@ -29400,7 +29475,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>65</v>
       </c>
     </row>

--- a/MoneyTracking.xlsx
+++ b/MoneyTracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="127">
   <si>
     <t>Date</t>
   </si>
@@ -181,7 +181,19 @@
     <t>Wholefood</t>
   </si>
   <si>
+    <t>Credit Card - Evelyn</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>trash bag</t>
+  </si>
+  <si>
     <t>The Market at North PA</t>
+  </si>
+  <si>
+    <t>Keurig K-Mini Plus</t>
   </si>
   <si>
     <t>Saving</t>
@@ -191,6 +203,9 @@
   </si>
   <si>
     <t>Evergreen Pet Clinic</t>
+  </si>
+  <si>
+    <t>sifting litter box</t>
   </si>
   <si>
     <t>Sheng Kee Barkey</t>
@@ -226,7 +241,28 @@
     <t>5.99 + 0.17 foreign transaction fee</t>
   </si>
   <si>
+    <t>Macy's</t>
+  </si>
+  <si>
+    <t>Instant Pot Duo Nova</t>
+  </si>
+  <si>
+    <t>usb rechargeable laser pointer</t>
+  </si>
+  <si>
+    <t>wall small hole repair</t>
+  </si>
+  <si>
+    <t>cookware glass lib and hand truck</t>
+  </si>
+  <si>
     <t>Lemonade Insurance</t>
+  </si>
+  <si>
+    <t>Returning</t>
+  </si>
+  <si>
+    <t>Bakingware</t>
   </si>
   <si>
     <t>Costco Gas</t>
@@ -238,13 +274,16 @@
     <t>North Park</t>
   </si>
   <si>
-    <t>Credit Card - Evelyn</t>
-  </si>
-  <si>
     <t>Chewy</t>
   </si>
   <si>
     <t>Cat tree, shampoo, seat cover and e-collar</t>
+  </si>
+  <si>
+    <t>harness</t>
+  </si>
+  <si>
+    <t>Kitchen shear</t>
   </si>
   <si>
     <t>TjMax</t>
@@ -257,6 +296,12 @@
   </si>
   <si>
     <t>me, Evelyn and Mendy</t>
+  </si>
+  <si>
+    <t>adpotion fee</t>
+  </si>
+  <si>
+    <t>Lumi</t>
   </si>
   <si>
     <t>Tea Spoon</t>
@@ -274,13 +319,16 @@
     <t>Nintendo YsVIII</t>
   </si>
   <si>
+    <t xml:space="preserve">Keurig K-cups </t>
+  </si>
+  <si>
     <t>IKEA</t>
   </si>
   <si>
-    <t>Paycheck/Salary</t>
+    <t>Electric kettle and kitchen scoops</t>
   </si>
   <si>
-    <t>Amazon</t>
+    <t>Paycheck/Salary</t>
   </si>
   <si>
     <t>Interest</t>
@@ -357,7 +405,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -370,6 +418,9 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
     <font/>
@@ -408,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -423,14 +474,29 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2203,29 +2269,49 @@
     </row>
     <row r="60">
       <c r="A60" s="3">
-        <v>44023.0</v>
-      </c>
-      <c r="B60" s="4" t="s">
+        <v>44022.0</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="4">
-        <v>6.24</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="4" t="s">
+      <c r="D60" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I60" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="E60" s="7">
+        <v>14.19</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H60" s="9"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
+      <c r="AB60" s="9"/>
     </row>
     <row r="61">
       <c r="A61" s="3">
@@ -2241,13 +2327,13 @@
         <v>11</v>
       </c>
       <c r="E61" s="4">
-        <v>35.59</v>
+        <v>6.24</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>13</v>
@@ -2267,13 +2353,13 @@
         <v>11</v>
       </c>
       <c r="E62" s="4">
-        <v>10.66</v>
+        <v>35.59</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>13</v>
@@ -2281,7 +2367,7 @@
     </row>
     <row r="63">
       <c r="A63" s="3">
-        <v>44024.0</v>
+        <v>44023.0</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>9</v>
@@ -2293,13 +2379,13 @@
         <v>11</v>
       </c>
       <c r="E63" s="4">
-        <v>14.99</v>
+        <v>10.66</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>13</v>
@@ -2319,13 +2405,13 @@
         <v>11</v>
       </c>
       <c r="E64" s="4">
-        <v>30.52</v>
+        <v>14.99</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>13</v>
@@ -2333,7 +2419,7 @@
     </row>
     <row r="65">
       <c r="A65" s="3">
-        <v>44025.0</v>
+        <v>44024.0</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>9</v>
@@ -2342,18 +2428,20 @@
         <v>10</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E65" s="4">
-        <v>88.67</v>
+        <v>30.52</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I65" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="3">
@@ -2369,19 +2457,19 @@
         <v>19</v>
       </c>
       <c r="E66" s="4">
-        <v>25.16</v>
+        <v>88.67</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I66" s="5"/>
     </row>
     <row r="67">
       <c r="A67" s="3">
-        <v>44029.0</v>
+        <v>44025.0</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>9</v>
@@ -2390,24 +2478,22 @@
         <v>10</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E67" s="4">
-        <v>74.31</v>
+        <v>25.16</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I67" s="5"/>
     </row>
     <row r="68">
       <c r="A68" s="3">
-        <v>44029.0</v>
+        <v>44026.0</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>9</v>
@@ -2416,22 +2502,22 @@
         <v>10</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E68" s="4">
-        <v>10000.0</v>
+        <v>87.39</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>57</v>
+        <v>20</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="I68" s="4"/>
     </row>
     <row r="69">
       <c r="A69" s="3">
-        <v>44030.0</v>
+        <v>44029.0</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>9</v>
@@ -2443,13 +2529,13 @@
         <v>11</v>
       </c>
       <c r="E69" s="4">
-        <v>50.0</v>
+        <v>74.31</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>13</v>
@@ -2457,7 +2543,7 @@
     </row>
     <row r="70">
       <c r="A70" s="3">
-        <v>44030.0</v>
+        <v>44029.0</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>9</v>
@@ -2466,24 +2552,22 @@
         <v>10</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E70" s="4">
-        <v>35.59</v>
+        <v>10000.0</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="I70" s="4"/>
     </row>
     <row r="71">
       <c r="A71" s="3">
-        <v>44031.0</v>
+        <v>44030.0</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>9</v>
@@ -2495,13 +2579,13 @@
         <v>11</v>
       </c>
       <c r="E71" s="4">
-        <v>8.69</v>
+        <v>50.0</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>13</v>
@@ -2509,7 +2593,7 @@
     </row>
     <row r="72">
       <c r="A72" s="3">
-        <v>44033.0</v>
+        <v>44030.0</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>9</v>
@@ -2521,13 +2605,13 @@
         <v>11</v>
       </c>
       <c r="E72" s="4">
-        <v>30.51</v>
+        <v>35.59</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>13</v>
@@ -2535,7 +2619,7 @@
     </row>
     <row r="73">
       <c r="A73" s="3">
-        <v>44033.0</v>
+        <v>44030.0</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>9</v>
@@ -2544,24 +2628,25 @@
         <v>10</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E73" s="4">
-        <v>11.0</v>
+        <v>18.39</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3">
-        <v>44033.0</v>
+        <v>44031.0</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>9</v>
@@ -2573,13 +2658,13 @@
         <v>11</v>
       </c>
       <c r="E74" s="4">
-        <v>5.99</v>
+        <v>8.69</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>13</v>
@@ -2587,7 +2672,7 @@
     </row>
     <row r="75">
       <c r="A75" s="3">
-        <v>44037.0</v>
+        <v>44033.0</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>9</v>
@@ -2599,13 +2684,13 @@
         <v>11</v>
       </c>
       <c r="E75" s="4">
-        <v>8.72</v>
+        <v>30.51</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>13</v>
@@ -2613,7 +2698,7 @@
     </row>
     <row r="76">
       <c r="A76" s="3">
-        <v>44037.0</v>
+        <v>44033.0</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>9</v>
@@ -2625,13 +2710,13 @@
         <v>11</v>
       </c>
       <c r="E76" s="4">
-        <v>55.17</v>
+        <v>11.0</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>13</v>
@@ -2639,7 +2724,7 @@
     </row>
     <row r="77">
       <c r="A77" s="3">
-        <v>44038.0</v>
+        <v>44033.0</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>9</v>
@@ -2651,13 +2736,13 @@
         <v>11</v>
       </c>
       <c r="E77" s="4">
-        <v>43.77</v>
+        <v>5.99</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>13</v>
@@ -2665,7 +2750,7 @@
     </row>
     <row r="78">
       <c r="A78" s="3">
-        <v>44038.0</v>
+        <v>44037.0</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>9</v>
@@ -2677,13 +2762,13 @@
         <v>11</v>
       </c>
       <c r="E78" s="4">
-        <v>61.13</v>
+        <v>8.72</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>13</v>
@@ -2691,7 +2776,7 @@
     </row>
     <row r="79">
       <c r="A79" s="3">
-        <v>44038.0</v>
+        <v>44037.0</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>9</v>
@@ -2703,13 +2788,13 @@
         <v>11</v>
       </c>
       <c r="E79" s="4">
-        <v>7.0</v>
+        <v>55.17</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>13</v>
@@ -2729,13 +2814,13 @@
         <v>11</v>
       </c>
       <c r="E80" s="4">
-        <v>28.6</v>
+        <v>43.77</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>13</v>
@@ -2755,13 +2840,13 @@
         <v>11</v>
       </c>
       <c r="E81" s="4">
-        <v>52.44</v>
+        <v>61.13</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>13</v>
@@ -2769,160 +2854,157 @@
     </row>
     <row r="82">
       <c r="A82" s="3">
-        <v>44039.0</v>
+        <v>44038.0</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E82" s="4">
-        <v>199.0</v>
+        <v>7.0</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I82" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="3">
-        <v>44039.0</v>
+        <v>44038.0</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E83" s="4">
-        <v>510.0</v>
+        <v>28.6</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I83" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="3">
-        <v>44039.0</v>
+        <v>44038.0</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E84" s="4">
-        <v>836.0</v>
+        <v>52.44</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I84" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="3">
         <v>44039.0</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E85" s="4">
-        <v>6.16</v>
+        <v>199.0</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J85" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="I85" s="5"/>
     </row>
     <row r="86">
       <c r="A86" s="3">
-        <v>44042.0</v>
+        <v>44039.0</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E86" s="4">
-        <v>5.0</v>
+        <v>510.0</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="I86" s="5"/>
     </row>
     <row r="87">
       <c r="A87" s="3">
-        <v>44042.0</v>
+        <v>44039.0</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E87" s="4">
-        <v>16.86</v>
+        <v>836.0</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="I87" s="5"/>
     </row>
     <row r="88">
       <c r="A88" s="3">
-        <v>44043.0</v>
+        <v>44039.0</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>9</v>
@@ -2931,22 +3013,27 @@
         <v>10</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E88" s="4">
-        <v>29.7</v>
+        <v>6.16</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I88" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="3">
-        <v>44043.0</v>
+        <v>44039.0</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>9</v>
@@ -2955,22 +3042,25 @@
         <v>10</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E89" s="4">
-        <v>43.58</v>
+        <v>109.24</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I89" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="3">
-        <v>44043.0</v>
+        <v>44039.0</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>9</v>
@@ -2979,24 +3069,25 @@
         <v>10</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E90" s="4">
-        <v>23.6</v>
+        <v>14.19</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I90" s="4"/>
+      <c r="J90" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3">
-        <v>44043.0</v>
+        <v>44040.0</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>9</v>
@@ -3005,24 +3096,25 @@
         <v>10</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E91" s="4">
-        <v>78.1</v>
+        <v>7.61</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I91" s="4"/>
+      <c r="J91" s="11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3">
-        <v>44043.0</v>
+        <v>44040.0</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>9</v>
@@ -3031,24 +3123,25 @@
         <v>10</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E92" s="4">
-        <v>5.5</v>
+        <v>78.43</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I92" s="4"/>
+      <c r="J92" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3">
-        <v>44043.0</v>
+        <v>44042.0</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>9</v>
@@ -3057,22 +3150,24 @@
         <v>10</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E93" s="4">
-        <v>1853.46</v>
+        <v>5.0</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I93" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="3">
-        <v>44044.0</v>
+        <v>44042.0</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>9</v>
@@ -3084,13 +3179,13 @@
         <v>11</v>
       </c>
       <c r="E94" s="4">
-        <v>35.59</v>
+        <v>16.86</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="I94" s="4" t="s">
         <v>13</v>
@@ -3098,7 +3193,7 @@
     </row>
     <row r="95">
       <c r="A95" s="3">
-        <v>44044.0</v>
+        <v>44042.0</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>9</v>
@@ -3107,24 +3202,28 @@
         <v>10</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E95" s="4">
-        <v>7.16</v>
+        <v>29.7</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I95" s="5"/>
+      <c r="J95" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3">
-        <v>44045.0</v>
+        <v>44043.0</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>9</v>
@@ -3136,19 +3235,19 @@
         <v>19</v>
       </c>
       <c r="E96" s="4">
-        <v>77.91</v>
+        <v>29.7</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I96" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="I96" s="5"/>
     </row>
     <row r="97">
       <c r="A97" s="3">
-        <v>44045.0</v>
+        <v>44043.0</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>9</v>
@@ -3157,25 +3256,22 @@
         <v>10</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E97" s="4">
-        <v>122.6</v>
+        <v>43.58</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="I97" s="5"/>
-      <c r="J97" s="4" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="3">
-        <v>44047.0</v>
+        <v>44043.0</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>9</v>
@@ -3187,13 +3283,13 @@
         <v>11</v>
       </c>
       <c r="E98" s="4">
-        <v>30.47</v>
+        <v>23.6</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I98" s="4" t="s">
         <v>13</v>
@@ -3201,7 +3297,7 @@
     </row>
     <row r="99">
       <c r="A99" s="3">
-        <v>44047.0</v>
+        <v>44043.0</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>9</v>
@@ -3213,13 +3309,13 @@
         <v>11</v>
       </c>
       <c r="E99" s="4">
-        <v>37.44</v>
+        <v>78.1</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I99" s="4" t="s">
         <v>13</v>
@@ -3227,7 +3323,7 @@
     </row>
     <row r="100">
       <c r="A100" s="3">
-        <v>44050.0</v>
+        <v>44043.0</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>9</v>
@@ -3239,24 +3335,21 @@
         <v>11</v>
       </c>
       <c r="E100" s="4">
-        <v>52.46</v>
+        <v>5.5</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="I100" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J100" s="4" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="3">
-        <v>44050.0</v>
+        <v>44043.0</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>9</v>
@@ -3265,24 +3358,22 @@
         <v>10</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E101" s="4">
-        <v>38.13</v>
+        <v>1853.46</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="I101" s="4"/>
     </row>
     <row r="102">
       <c r="A102" s="3">
-        <v>44050.0</v>
+        <v>44044.0</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>9</v>
@@ -3294,24 +3385,21 @@
         <v>11</v>
       </c>
       <c r="E102" s="4">
-        <v>43.87</v>
+        <v>35.59</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J102" s="4" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="3">
-        <v>44050.0</v>
+        <v>44044.0</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>9</v>
@@ -3323,13 +3411,13 @@
         <v>11</v>
       </c>
       <c r="E103" s="4">
-        <v>31.43</v>
+        <v>7.16</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I103" s="4" t="s">
         <v>13</v>
@@ -3337,7 +3425,7 @@
     </row>
     <row r="104">
       <c r="A104" s="3">
-        <v>44051.0</v>
+        <v>44045.0</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>9</v>
@@ -3346,24 +3434,22 @@
         <v>10</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E104" s="4">
-        <v>22.3</v>
+        <v>77.91</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I104" s="4"/>
     </row>
     <row r="105">
       <c r="A105" s="3">
-        <v>44051.0</v>
+        <v>44045.0</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>9</v>
@@ -3372,24 +3458,25 @@
         <v>10</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E105" s="4">
-        <v>111.54</v>
+        <v>122.6</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>50</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>13</v>
+        <v>86</v>
+      </c>
+      <c r="I105" s="5"/>
+      <c r="J105" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3">
-        <v>44051.0</v>
+        <v>44045.0</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>9</v>
@@ -3398,24 +3485,25 @@
         <v>10</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E106" s="4">
-        <v>11.19</v>
+        <v>16.37</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I106" s="4"/>
+      <c r="J106" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3">
-        <v>44052.0</v>
+        <v>44046.0</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>9</v>
@@ -3424,27 +3512,25 @@
         <v>10</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E107" s="4">
-        <v>45.1</v>
+        <v>21.84</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I107" s="4"/>
       <c r="J107" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3">
-        <v>44052.0</v>
+        <v>44047.0</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>9</v>
@@ -3453,22 +3539,24 @@
         <v>10</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="E108" s="4">
-        <v>205.0</v>
+        <v>30.47</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I108" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="3">
-        <v>44053.0</v>
+        <v>44047.0</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>9</v>
@@ -3480,13 +3568,13 @@
         <v>11</v>
       </c>
       <c r="E109" s="4">
-        <v>28.77</v>
+        <v>37.44</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="I109" s="4" t="s">
         <v>13</v>
@@ -3494,7 +3582,7 @@
     </row>
     <row r="110">
       <c r="A110" s="3">
-        <v>44053.0</v>
+        <v>44050.0</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>9</v>
@@ -3506,21 +3594,24 @@
         <v>11</v>
       </c>
       <c r="E110" s="4">
-        <v>70.5</v>
+        <v>52.46</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="I110" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="J110" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="3">
-        <v>44054.0</v>
+        <v>44050.0</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>9</v>
@@ -3532,13 +3623,13 @@
         <v>11</v>
       </c>
       <c r="E111" s="4">
-        <v>48.5</v>
+        <v>38.13</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="I111" s="4" t="s">
         <v>13</v>
@@ -3546,7 +3637,7 @@
     </row>
     <row r="112">
       <c r="A112" s="3">
-        <v>44054.0</v>
+        <v>44050.0</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>9</v>
@@ -3558,134 +3649,359 @@
         <v>11</v>
       </c>
       <c r="E112" s="4">
-        <v>32.83</v>
+        <v>43.87</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I112" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="J112" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="I113" s="5"/>
+      <c r="A113" s="3">
+        <v>44050.0</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="4">
+        <v>31.43</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="I114" s="5"/>
+      <c r="A114" s="3">
+        <v>44050.0</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E114" s="4">
+        <v>125.0</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="I115" s="5"/>
+      <c r="A115" s="3">
+        <v>44051.0</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="4">
+        <v>22.3</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="I116" s="5"/>
+      <c r="A116" s="3">
+        <v>44051.0</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="4">
+        <v>111.54</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="I117" s="5"/>
+      <c r="A117" s="3">
+        <v>44051.0</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="4">
+        <v>11.19</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="I118" s="5"/>
+      <c r="A118" s="3">
+        <v>44052.0</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="4">
+        <v>45.1</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="I119" s="5"/>
+      <c r="A119" s="3">
+        <v>44052.0</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E119" s="4">
+        <v>205.0</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I119" s="4"/>
     </row>
     <row r="120">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="I120" s="5"/>
+      <c r="A120" s="3">
+        <v>44053.0</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="4">
+        <v>28.77</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="I121" s="5"/>
+      <c r="A121" s="3">
+        <v>44053.0</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="4">
+        <v>70.5</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="I122" s="5"/>
+      <c r="A122" s="3">
+        <v>44053.0</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E122" s="4">
+        <v>40.56</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I122" s="4"/>
     </row>
     <row r="123">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="I123" s="5"/>
+      <c r="A123" s="3">
+        <v>44054.0</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="4">
+        <v>48.5</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="I124" s="5"/>
+      <c r="A124" s="3">
+        <v>44054.0</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="4">
+        <v>32.83</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
+      <c r="A125" s="3">
+        <v>44055.0</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E125" s="4">
+        <v>50.23</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="I125" s="5"/>
+      <c r="J125" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="5"/>
@@ -11652,30 +11968,138 @@
       <c r="F1010" s="5"/>
       <c r="I1010" s="5"/>
     </row>
+    <row r="1011">
+      <c r="A1011" s="5"/>
+      <c r="B1011" s="5"/>
+      <c r="C1011" s="5"/>
+      <c r="D1011" s="5"/>
+      <c r="E1011" s="5"/>
+      <c r="F1011" s="5"/>
+      <c r="I1011" s="5"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="5"/>
+      <c r="B1012" s="5"/>
+      <c r="C1012" s="5"/>
+      <c r="D1012" s="5"/>
+      <c r="E1012" s="5"/>
+      <c r="F1012" s="5"/>
+      <c r="I1012" s="5"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="5"/>
+      <c r="B1013" s="5"/>
+      <c r="C1013" s="5"/>
+      <c r="D1013" s="5"/>
+      <c r="E1013" s="5"/>
+      <c r="F1013" s="5"/>
+      <c r="I1013" s="5"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="5"/>
+      <c r="B1014" s="5"/>
+      <c r="C1014" s="5"/>
+      <c r="D1014" s="5"/>
+      <c r="E1014" s="5"/>
+      <c r="F1014" s="5"/>
+      <c r="I1014" s="5"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="5"/>
+      <c r="B1015" s="5"/>
+      <c r="C1015" s="5"/>
+      <c r="D1015" s="5"/>
+      <c r="E1015" s="5"/>
+      <c r="F1015" s="5"/>
+      <c r="I1015" s="5"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="5"/>
+      <c r="B1016" s="5"/>
+      <c r="C1016" s="5"/>
+      <c r="D1016" s="5"/>
+      <c r="E1016" s="5"/>
+      <c r="F1016" s="5"/>
+      <c r="I1016" s="5"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="5"/>
+      <c r="B1017" s="5"/>
+      <c r="C1017" s="5"/>
+      <c r="D1017" s="5"/>
+      <c r="E1017" s="5"/>
+      <c r="F1017" s="5"/>
+      <c r="I1017" s="5"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="5"/>
+      <c r="B1018" s="5"/>
+      <c r="C1018" s="5"/>
+      <c r="D1018" s="5"/>
+      <c r="E1018" s="5"/>
+      <c r="F1018" s="5"/>
+      <c r="I1018" s="5"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="5"/>
+      <c r="B1019" s="5"/>
+      <c r="C1019" s="5"/>
+      <c r="D1019" s="5"/>
+      <c r="E1019" s="5"/>
+      <c r="F1019" s="5"/>
+      <c r="I1019" s="5"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="5"/>
+      <c r="B1020" s="5"/>
+      <c r="C1020" s="5"/>
+      <c r="D1020" s="5"/>
+      <c r="E1020" s="5"/>
+      <c r="F1020" s="5"/>
+      <c r="I1020" s="5"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="5"/>
+      <c r="B1021" s="5"/>
+      <c r="C1021" s="5"/>
+      <c r="D1021" s="5"/>
+      <c r="E1021" s="5"/>
+      <c r="F1021" s="5"/>
+      <c r="I1021" s="5"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="5"/>
+      <c r="B1022" s="5"/>
+      <c r="C1022" s="5"/>
+      <c r="D1022" s="5"/>
+      <c r="E1022" s="5"/>
+      <c r="F1022" s="5"/>
+      <c r="I1022" s="5"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I1010">
+    <dataValidation type="list" allowBlank="1" sqref="I2:I1022">
       <formula1>Items!$F$2:$F$1000</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="B2">
       <formula1>Items!$A$2:$A$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1010">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1022">
       <formula1>Items!$C$2:$C$1000</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A106 A108:A1010">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A117 A119:A1022">
       <formula1>OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B3:B1010">
+    <dataValidation type="list" allowBlank="1" sqref="B3:B1022">
       <formula1>"USD,NTD"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E106 E108:E1010">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E117 E119:E1022">
       <formula1>0.0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1010">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C1022">
       <formula1>Items!$B$2:$B$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F1010">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F1022">
       <formula1>Items!$D$2:$D$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -11759,8 +12183,8 @@
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" s="3">
@@ -11773,7 +12197,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E3" s="4">
         <v>18000.44</v>
@@ -11800,10 +12224,10 @@
         <v>1511.51</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -11844,10 +12268,10 @@
         <v>2736.82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -11861,16 +12285,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E7" s="4">
         <v>0.12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>90</v>
+        <v>105</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -11890,10 +12314,10 @@
         <v>2736.8</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -11913,10 +12337,10 @@
         <v>977.0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -11936,10 +12360,10 @@
         <v>3036.0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
@@ -11959,10 +12383,10 @@
         <v>2736.82</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -11982,10 +12406,10 @@
         <v>19965.0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -11999,16 +12423,16 @@
         <v>10</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E13" s="4">
         <v>0.13</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14">
@@ -12028,10 +12452,10 @@
         <v>2736.81</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
@@ -12051,10 +12475,10 @@
         <v>10.55</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
@@ -12074,10 +12498,10 @@
         <v>29965.0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -12097,10 +12521,10 @@
         <v>2736.8</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -12117,13 +12541,13 @@
         <v>11</v>
       </c>
       <c r="E18" s="4">
-        <v>23.15</v>
+        <v>23.24</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>99</v>
+        <v>114</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="19">
@@ -20058,28 +20482,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -20117,7 +20541,7 @@
         <v>418.87</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>13</v>
@@ -20152,7 +20576,7 @@
         <v>844.0</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="K3" s="5"/>
     </row>
@@ -20185,7 +20609,7 @@
         <v>700.0</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>13</v>
@@ -20211,7 +20635,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>9</v>
@@ -20250,7 +20674,7 @@
         <v>800.0</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>13</v>
@@ -20276,7 +20700,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>9</v>
@@ -20306,7 +20730,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>9</v>
@@ -20345,7 +20769,7 @@
         <v>800.0</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>13</v>
@@ -20368,10 +20792,10 @@
         <v>260.0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>9</v>
@@ -20410,7 +20834,7 @@
         <v>500.0</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>13</v>
@@ -29367,10 +29791,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -29406,11 +29830,11 @@
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
@@ -29424,18 +29848,18 @@
         <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="4" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
@@ -29444,12 +29868,12 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="4" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
@@ -29460,13 +29884,13 @@
     </row>
     <row r="6">
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
@@ -29475,8 +29899,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="D8" s="9" t="s">
-        <v>65</v>
+      <c r="D8" s="14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">

--- a/MoneyTracking.xlsx
+++ b/MoneyTracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="145">
   <si>
     <t>Date</t>
   </si>
@@ -97,7 +97,7 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>Gas</t>
+    <t>Costco Gas</t>
   </si>
   <si>
     <t>Costco</t>
@@ -265,9 +265,6 @@
     <t>Bakingware</t>
   </si>
   <si>
-    <t>Costco Gas</t>
-  </si>
-  <si>
     <t>Trarget</t>
   </si>
   <si>
@@ -326,6 +323,63 @@
   </si>
   <si>
     <t>Electric kettle and kitchen scoops</t>
+  </si>
+  <si>
+    <t>Dyson</t>
+  </si>
+  <si>
+    <t>Dyson V11 Torque</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>13.27 + 0.39 foreign transaction fee</t>
+  </si>
+  <si>
+    <t>FedEx</t>
+  </si>
+  <si>
+    <t>Macy's return label, Lmui's medical record, and W7 form (ITIN)</t>
+  </si>
+  <si>
+    <t>litter box</t>
+  </si>
+  <si>
+    <t>filter kit for Dyson V8</t>
+  </si>
+  <si>
+    <t>Vending machine</t>
+  </si>
+  <si>
+    <t>7 for all mankind</t>
+  </si>
+  <si>
+    <t>2 pairs of jeans</t>
+  </si>
+  <si>
+    <t>Corning</t>
+  </si>
+  <si>
+    <t>bakingware</t>
+  </si>
+  <si>
+    <t>Lemonade insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice and </t>
+  </si>
+  <si>
+    <t>Venmo to Jaspher</t>
+  </si>
+  <si>
+    <t>Uniqlo</t>
+  </si>
+  <si>
+    <t>Bars, T-shirts, fanny bag, and hat</t>
+  </si>
+  <si>
+    <t>60/2, Venmo (splitwise)</t>
   </si>
   <si>
     <t>Paycheck/Salary</t>
@@ -405,7 +459,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -418,9 +472,6 @@
     </font>
     <font>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <name val="Arial"/>
     </font>
     <font/>
@@ -459,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -474,29 +525,26 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1133,7 +1181,7 @@
       <c r="F15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I15" s="5"/>
@@ -1847,7 +1895,7 @@
       <c r="F43" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I43" s="5"/>
@@ -2236,7 +2284,7 @@
       <c r="F58" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I58" s="4"/>
@@ -2271,26 +2319,26 @@
       <c r="A60" s="3">
         <v>44022.0</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="8">
         <v>14.19</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G60" s="7" t="s">
         <v>56</v>
       </c>
       <c r="H60" s="9"/>
-      <c r="I60" s="6"/>
+      <c r="I60" s="7"/>
       <c r="J60" s="10" t="s">
         <v>57</v>
       </c>
@@ -2510,7 +2558,7 @@
       <c r="F68" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G68" s="11" t="s">
+      <c r="G68" s="4" t="s">
         <v>59</v>
       </c>
       <c r="I68" s="4"/>
@@ -2636,7 +2684,7 @@
       <c r="F73" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G73" s="11" t="s">
+      <c r="G73" s="4" t="s">
         <v>56</v>
       </c>
       <c r="I73" s="4"/>
@@ -3050,7 +3098,7 @@
       <c r="F89" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G89" s="11" t="s">
+      <c r="G89" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I89" s="4"/>
@@ -3077,11 +3125,11 @@
       <c r="F90" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G90" s="11" t="s">
+      <c r="G90" s="4" t="s">
         <v>56</v>
       </c>
       <c r="I90" s="4"/>
-      <c r="J90" s="11" t="s">
+      <c r="J90" s="4" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3104,11 +3152,11 @@
       <c r="F91" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G91" s="11" t="s">
+      <c r="G91" s="4" t="s">
         <v>56</v>
       </c>
       <c r="I91" s="4"/>
-      <c r="J91" s="11" t="s">
+      <c r="J91" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3131,11 +3179,11 @@
       <c r="F92" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G92" s="11" t="s">
+      <c r="G92" s="4" t="s">
         <v>56</v>
       </c>
       <c r="I92" s="4"/>
-      <c r="J92" s="11" t="s">
+      <c r="J92" s="4" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3210,14 +3258,14 @@
       <c r="F95" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G95" s="11" t="s">
+      <c r="G95" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>81</v>
       </c>
       <c r="I95" s="5"/>
-      <c r="J95" s="11" t="s">
+      <c r="J95" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3241,7 +3289,7 @@
         <v>26</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="I96" s="5"/>
     </row>
@@ -3289,7 +3337,7 @@
         <v>16</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I98" s="4" t="s">
         <v>13</v>
@@ -3367,7 +3415,7 @@
         <v>20</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I101" s="4"/>
     </row>
@@ -3467,11 +3515,11 @@
         <v>50</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I105" s="5"/>
       <c r="J105" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106">
@@ -3493,12 +3541,12 @@
       <c r="F106" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G106" s="11" t="s">
+      <c r="G106" s="4" t="s">
         <v>56</v>
       </c>
       <c r="I106" s="4"/>
-      <c r="J106" s="11" t="s">
-        <v>88</v>
+      <c r="J106" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="107">
@@ -3520,12 +3568,12 @@
       <c r="F107" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G107" s="11" t="s">
+      <c r="G107" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I107" s="4"/>
       <c r="J107" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108">
@@ -3548,7 +3596,7 @@
         <v>20</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I108" s="4" t="s">
         <v>13</v>
@@ -3600,13 +3648,13 @@
         <v>20</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I110" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="111">
@@ -3661,7 +3709,7 @@
         <v>13</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113">
@@ -3709,12 +3757,12 @@
       <c r="F114" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G114" s="11" t="s">
-        <v>94</v>
+      <c r="G114" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="I114" s="4"/>
       <c r="J114" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115">
@@ -3737,7 +3785,7 @@
         <v>14</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I115" s="4" t="s">
         <v>13</v>
@@ -3820,8 +3868,8 @@
       <c r="I118" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J118" s="11" t="s">
-        <v>97</v>
+      <c r="J118" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="119">
@@ -3835,7 +3883,7 @@
         <v>10</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E119" s="4">
         <v>205.0</v>
@@ -3844,7 +3892,7 @@
         <v>47</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I119" s="4"/>
     </row>
@@ -3868,7 +3916,7 @@
         <v>35</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I120" s="4" t="s">
         <v>13</v>
@@ -3919,8 +3967,8 @@
       <c r="F122" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G122" s="11" t="s">
-        <v>101</v>
+      <c r="G122" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="I122" s="4"/>
     </row>
@@ -3944,7 +3992,7 @@
         <v>20</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I123" s="4" t="s">
         <v>13</v>
@@ -4000,179 +4048,506 @@
       </c>
       <c r="I125" s="5"/>
       <c r="J125" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3">
+        <v>44056.0</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" s="4">
+        <v>31.64</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I126" s="5"/>
+      <c r="J126" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3">
+        <v>44056.0</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E127" s="4">
+        <v>655.49</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G127" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="I126" s="5"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
       <c r="I127" s="5"/>
+      <c r="J127" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="I128" s="5"/>
+      <c r="A128" s="3">
+        <v>44056.0</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="4">
+        <f>13.27 + 0.39</f>
+        <v>13.66</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="I129" s="5"/>
+      <c r="A129" s="3">
+        <v>44056.0</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="4">
+        <v>29.25</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="I130" s="5"/>
+      <c r="A130" s="3">
+        <v>44056.0</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="4">
+        <v>3.57</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
+      <c r="A131" s="3">
+        <v>44056.0</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" s="4">
+        <v>835.0</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="I131" s="5"/>
     </row>
     <row r="132">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="I132" s="5"/>
+      <c r="A132" s="3">
+        <v>44057.0</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="4">
+        <v>4.47</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="I133" s="5"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="I134" s="5"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="I135" s="5"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="I136" s="5"/>
+      <c r="A133" s="3">
+        <v>44057.0</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="4">
+        <v>89.04</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" ht="15.0" customHeight="1">
+      <c r="A134" s="3">
+        <v>44058.0</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E134" s="4">
+        <v>18.39</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I134" s="4"/>
+      <c r="J134" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="135" ht="15.0" customHeight="1">
+      <c r="A135" s="3">
+        <v>44058.0</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E135" s="4">
+        <v>9.82</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I135" s="4"/>
+      <c r="J135" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="136" ht="15.0" customHeight="1">
+      <c r="A136" s="3">
+        <v>44061.0</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I136" s="4"/>
     </row>
     <row r="137">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="I137" s="5"/>
+      <c r="A137" s="3">
+        <v>44061.0</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="4">
+        <v>172.22</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J137" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="I138" s="5"/>
+      <c r="A138" s="3">
+        <v>44061.0</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="4">
+        <v>21.36</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="I139" s="5"/>
+      <c r="A139" s="3">
+        <v>44062.0</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="4">
+        <v>5.09</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="I140" s="5"/>
+      <c r="A140" s="3">
+        <v>44063.0</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="141">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
+      <c r="A141" s="3">
+        <v>44063.0</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="I141" s="5"/>
+      <c r="J141" s="6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
+      <c r="A142" s="3">
+        <v>44064.0</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E142" s="4">
+        <v>125.97</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="I142" s="5"/>
+      <c r="J142" s="4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
+      <c r="A143" s="3">
+        <v>44064.0</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I143" s="5"/>
+      <c r="J143" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
+      <c r="A144" s="3"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
       <c r="I144" s="5"/>
+      <c r="J144" s="4"/>
     </row>
     <row r="145">
       <c r="A145" s="5"/>
@@ -12076,30 +12451,138 @@
       <c r="F1022" s="5"/>
       <c r="I1022" s="5"/>
     </row>
+    <row r="1023">
+      <c r="A1023" s="5"/>
+      <c r="B1023" s="5"/>
+      <c r="C1023" s="5"/>
+      <c r="D1023" s="5"/>
+      <c r="E1023" s="5"/>
+      <c r="F1023" s="5"/>
+      <c r="I1023" s="5"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="5"/>
+      <c r="B1024" s="5"/>
+      <c r="C1024" s="5"/>
+      <c r="D1024" s="5"/>
+      <c r="E1024" s="5"/>
+      <c r="F1024" s="5"/>
+      <c r="I1024" s="5"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="5"/>
+      <c r="B1025" s="5"/>
+      <c r="C1025" s="5"/>
+      <c r="D1025" s="5"/>
+      <c r="E1025" s="5"/>
+      <c r="F1025" s="5"/>
+      <c r="I1025" s="5"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="5"/>
+      <c r="B1026" s="5"/>
+      <c r="C1026" s="5"/>
+      <c r="D1026" s="5"/>
+      <c r="E1026" s="5"/>
+      <c r="F1026" s="5"/>
+      <c r="I1026" s="5"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="5"/>
+      <c r="B1027" s="5"/>
+      <c r="C1027" s="5"/>
+      <c r="D1027" s="5"/>
+      <c r="E1027" s="5"/>
+      <c r="F1027" s="5"/>
+      <c r="I1027" s="5"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="5"/>
+      <c r="B1028" s="5"/>
+      <c r="C1028" s="5"/>
+      <c r="D1028" s="5"/>
+      <c r="E1028" s="5"/>
+      <c r="F1028" s="5"/>
+      <c r="I1028" s="5"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="5"/>
+      <c r="B1029" s="5"/>
+      <c r="C1029" s="5"/>
+      <c r="D1029" s="5"/>
+      <c r="E1029" s="5"/>
+      <c r="F1029" s="5"/>
+      <c r="I1029" s="5"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="5"/>
+      <c r="B1030" s="5"/>
+      <c r="C1030" s="5"/>
+      <c r="D1030" s="5"/>
+      <c r="E1030" s="5"/>
+      <c r="F1030" s="5"/>
+      <c r="I1030" s="5"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="5"/>
+      <c r="B1031" s="5"/>
+      <c r="C1031" s="5"/>
+      <c r="D1031" s="5"/>
+      <c r="E1031" s="5"/>
+      <c r="F1031" s="5"/>
+      <c r="I1031" s="5"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="5"/>
+      <c r="B1032" s="5"/>
+      <c r="C1032" s="5"/>
+      <c r="D1032" s="5"/>
+      <c r="E1032" s="5"/>
+      <c r="F1032" s="5"/>
+      <c r="I1032" s="5"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="5"/>
+      <c r="B1033" s="5"/>
+      <c r="C1033" s="5"/>
+      <c r="D1033" s="5"/>
+      <c r="E1033" s="5"/>
+      <c r="F1033" s="5"/>
+      <c r="I1033" s="5"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="5"/>
+      <c r="B1034" s="5"/>
+      <c r="C1034" s="5"/>
+      <c r="D1034" s="5"/>
+      <c r="E1034" s="5"/>
+      <c r="F1034" s="5"/>
+      <c r="I1034" s="5"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I1022">
+    <dataValidation type="list" allowBlank="1" sqref="I2:I1034">
       <formula1>Items!$F$2:$F$1000</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="B2">
       <formula1>Items!$A$2:$A$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1022">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1034">
       <formula1>Items!$C$2:$C$1000</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A117 A119:A1022">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A117 A119:A1034">
       <formula1>OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B3:B1022">
+    <dataValidation type="list" allowBlank="1" sqref="B3:B1034">
       <formula1>"USD,NTD"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E117 E119:E1022">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E117 E119:E1034">
       <formula1>0.0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1022">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C1034">
       <formula1>Items!$B$2:$B$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F1022">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F1034">
       <formula1>Items!$D$2:$D$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -12183,8 +12666,8 @@
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" s="3">
@@ -12224,7 +12707,7 @@
         <v>1511.51</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>56</v>
@@ -12268,7 +12751,7 @@
         <v>2736.82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>56</v>
@@ -12291,10 +12774,10 @@
         <v>0.12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
@@ -12314,7 +12797,7 @@
         <v>2736.8</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>56</v>
@@ -12337,10 +12820,10 @@
         <v>977.0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -12360,10 +12843,10 @@
         <v>3036.0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
@@ -12383,7 +12866,7 @@
         <v>2736.82</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>56</v>
@@ -12406,10 +12889,10 @@
         <v>19965.0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
@@ -12429,10 +12912,10 @@
         <v>0.13</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
@@ -12452,7 +12935,7 @@
         <v>2736.81</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>56</v>
@@ -12475,10 +12958,10 @@
         <v>10.55</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
@@ -12498,10 +12981,10 @@
         <v>29965.0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
@@ -12521,7 +13004,7 @@
         <v>2736.8</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>56</v>
@@ -12544,19 +13027,34 @@
         <v>23.24</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="A19" s="3">
+        <v>44064.0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1571.12</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5"/>
@@ -20482,28 +20980,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -20541,7 +21039,7 @@
         <v>418.87</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>13</v>
@@ -20576,7 +21074,7 @@
         <v>844.0</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="K3" s="5"/>
     </row>
@@ -20609,7 +21107,7 @@
         <v>700.0</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>13</v>
@@ -20674,7 +21172,7 @@
         <v>800.0</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>13</v>
@@ -20769,7 +21267,7 @@
         <v>800.0</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>13</v>
@@ -20792,10 +21290,10 @@
         <v>260.0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>9</v>
@@ -20834,7 +21332,7 @@
         <v>500.0</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>13</v>
@@ -29791,10 +30289,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -29830,11 +30328,11 @@
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
@@ -29854,12 +30352,12 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
@@ -29868,12 +30366,12 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
@@ -29890,7 +30388,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7">
@@ -29899,7 +30397,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>70</v>
       </c>
     </row>

--- a/MoneyTracking.xlsx
+++ b/MoneyTracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="165">
   <si>
     <t>Date</t>
   </si>
@@ -223,7 +223,7 @@
     <t>Hunan Impression</t>
   </si>
   <si>
-    <t>Cell phone bill</t>
+    <t>中華電信</t>
   </si>
   <si>
     <t>Finance</t>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>North Park</t>
+  </si>
+  <si>
+    <t>conservice water 42.44, trash 39, sewer 32.82, service fee 4.55, common area 18.11</t>
   </si>
   <si>
     <t>Chewy</t>
@@ -382,6 +385,60 @@
     <t>60/2, Venmo (splitwise)</t>
   </si>
   <si>
+    <t>Cans and kibbles</t>
+  </si>
+  <si>
+    <t>Cuinart set of 3 fine mesh stainless steel strainers</t>
+  </si>
+  <si>
+    <t>Easterly</t>
+  </si>
+  <si>
+    <t>with Mendy and Ben</t>
+  </si>
+  <si>
+    <t>I94 printing</t>
+  </si>
+  <si>
+    <t>Home Goods</t>
+  </si>
+  <si>
+    <t>peeler, oven mitts</t>
+  </si>
+  <si>
+    <t>broom</t>
+  </si>
+  <si>
+    <t>absorbent dog pads</t>
+  </si>
+  <si>
+    <t>rice cooker</t>
+  </si>
+  <si>
+    <t>AT&amp;T prepaid</t>
+  </si>
+  <si>
+    <t>e-collar</t>
+  </si>
+  <si>
+    <t>conservice water 44.06, trash 39.22, sewer 33.86, service fee 4.55, common area 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra long wood chopsticks 6.99, roll up dish drying rack 13.99, toaster oven 39.99 </t>
+  </si>
+  <si>
+    <t>Paris Bague</t>
+  </si>
+  <si>
+    <t>To Eve's BOA checking</t>
+  </si>
+  <si>
+    <t>car insurance, lincense fee</t>
+  </si>
+  <si>
+    <t>Sofi Riverview</t>
+  </si>
+  <si>
     <t>Paycheck/Salary</t>
   </si>
   <si>
@@ -416,6 +473,9 @@
   </si>
   <si>
     <t>Redeem cash rewards</t>
+  </si>
+  <si>
+    <t>0.4 - 0.1 Federal withholding</t>
   </si>
   <si>
     <t>FromBank</t>
@@ -474,11 +534,11 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
@@ -525,9 +585,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -540,8 +597,11 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -1181,7 +1241,7 @@
       <c r="F15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I15" s="5"/>
@@ -1895,7 +1955,7 @@
       <c r="F43" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I43" s="5"/>
@@ -2284,7 +2344,7 @@
       <c r="F58" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I58" s="4"/>
@@ -2319,47 +2379,47 @@
       <c r="A60" s="3">
         <v>44022.0</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E60" s="7">
         <v>14.19</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H60" s="9"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="10" t="s">
+      <c r="H60" s="8"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
-      <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="9"/>
-      <c r="Y60" s="9"/>
-      <c r="Z60" s="9"/>
-      <c r="AA60" s="9"/>
-      <c r="AB60" s="9"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
     </row>
     <row r="61">
       <c r="A61" s="3">
@@ -3418,6 +3478,9 @@
         <v>84</v>
       </c>
       <c r="I101" s="4"/>
+      <c r="J101" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="3">
@@ -3515,11 +3578,11 @@
         <v>50</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I105" s="5"/>
       <c r="J105" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106">
@@ -3546,7 +3609,7 @@
       </c>
       <c r="I106" s="4"/>
       <c r="J106" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107">
@@ -3573,7 +3636,7 @@
       </c>
       <c r="I107" s="4"/>
       <c r="J107" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108">
@@ -3596,7 +3659,7 @@
         <v>20</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I108" s="4" t="s">
         <v>13</v>
@@ -3648,13 +3711,13 @@
         <v>20</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I110" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111">
@@ -3709,7 +3772,7 @@
         <v>13</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113">
@@ -3758,11 +3821,11 @@
         <v>50</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I114" s="4"/>
       <c r="J114" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="115">
@@ -3785,7 +3848,7 @@
         <v>14</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I115" s="4" t="s">
         <v>13</v>
@@ -3869,7 +3932,7 @@
         <v>13</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119">
@@ -3883,7 +3946,7 @@
         <v>10</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E119" s="4">
         <v>205.0</v>
@@ -3892,7 +3955,7 @@
         <v>47</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I119" s="4"/>
     </row>
@@ -3916,7 +3979,7 @@
         <v>35</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I120" s="4" t="s">
         <v>13</v>
@@ -3968,7 +4031,7 @@
         <v>20</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I122" s="4"/>
     </row>
@@ -3992,7 +4055,7 @@
         <v>20</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I123" s="4" t="s">
         <v>13</v>
@@ -4048,7 +4111,7 @@
       </c>
       <c r="I125" s="5"/>
       <c r="J125" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="126">
@@ -4070,11 +4133,11 @@
       <c r="F126" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G126" s="6" t="s">
+      <c r="G126" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I126" s="5"/>
-      <c r="J126" s="6" t="s">
+      <c r="J126" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4098,11 +4161,11 @@
         <v>20</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I127" s="5"/>
       <c r="J127" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="128">
@@ -4126,13 +4189,13 @@
         <v>35</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I128" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129">
@@ -4181,13 +4244,13 @@
         <v>47</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I130" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="131">
@@ -4259,7 +4322,7 @@
       <c r="F133" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G133" s="6" t="s">
+      <c r="G133" s="4" t="s">
         <v>31</v>
       </c>
       <c r="I133" s="4" t="s">
@@ -4285,12 +4348,12 @@
       <c r="F134" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G134" s="6" t="s">
+      <c r="G134" s="4" t="s">
         <v>56</v>
       </c>
       <c r="I134" s="4"/>
-      <c r="J134" s="6" t="s">
-        <v>109</v>
+      <c r="J134" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="135" ht="15.0" customHeight="1">
@@ -4312,12 +4375,12 @@
       <c r="F135" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G135" s="6" t="s">
+      <c r="G135" s="4" t="s">
         <v>56</v>
       </c>
       <c r="I135" s="4"/>
-      <c r="J135" s="6" t="s">
-        <v>110</v>
+      <c r="J135" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="136" ht="15.0" customHeight="1">
@@ -4339,8 +4402,8 @@
       <c r="F136" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G136" s="6" t="s">
-        <v>111</v>
+      <c r="G136" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="I136" s="4"/>
     </row>
@@ -4363,14 +4426,14 @@
       <c r="F137" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G137" s="6" t="s">
-        <v>112</v>
+      <c r="G137" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="I137" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J137" s="6" t="s">
-        <v>113</v>
+      <c r="J137" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="138">
@@ -4392,14 +4455,14 @@
       <c r="F138" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G138" s="6" t="s">
-        <v>114</v>
+      <c r="G138" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="I138" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="139">
@@ -4421,8 +4484,8 @@
       <c r="F139" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G139" s="6" t="s">
-        <v>116</v>
+      <c r="G139" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="I139" s="4" t="s">
         <v>13</v>
@@ -4447,14 +4510,14 @@
       <c r="F140" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G140" s="6" t="s">
+      <c r="G140" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I140" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J140" s="6" t="s">
-        <v>117</v>
+      <c r="J140" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="141">
@@ -4476,12 +4539,12 @@
       <c r="F141" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G141" s="6" t="s">
+      <c r="G141" s="4" t="s">
         <v>52</v>
       </c>
       <c r="I141" s="5"/>
-      <c r="J141" s="6" t="s">
-        <v>118</v>
+      <c r="J141" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="142">
@@ -4504,11 +4567,11 @@
         <v>35</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I142" s="5"/>
       <c r="J142" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143">
@@ -4530,257 +4593,729 @@
       <c r="F143" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G143" s="6" t="s">
+      <c r="G143" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I143" s="5"/>
-      <c r="J143" s="6" t="s">
-        <v>121</v>
+      <c r="J143" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="3"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="I144" s="5"/>
+      <c r="A144" s="3">
+        <v>44064.0</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" s="4">
+        <v>63.68</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J144" s="4"/>
     </row>
     <row r="145">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="I145" s="5"/>
+      <c r="A145" s="3">
+        <v>44064.0</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" s="4">
+        <v>118.49</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="146">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="I146" s="5"/>
+      <c r="A146" s="3">
+        <v>44064.0</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" s="4">
+        <v>29.77</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="147">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="I147" s="5"/>
+      <c r="A147" s="3">
+        <v>44064.0</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E147" s="4">
+        <v>14.19</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="148">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="I148" s="5"/>
+      <c r="A148" s="3">
+        <v>44065.0</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" s="4">
+        <v>74.62</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="149">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="I149" s="5"/>
+      <c r="A149" s="3">
+        <v>44067.0</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="150">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="I150" s="5"/>
+      <c r="A150" s="3">
+        <v>44067.0</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" s="4">
+        <v>57.7</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="I151" s="5"/>
+      <c r="A151" s="3">
+        <v>44067.0</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="4">
+        <v>9.26</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="152">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="I152" s="5"/>
+      <c r="A152" s="3">
+        <v>44067.0</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" s="4">
+        <v>34.19</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="153">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
+      <c r="A153" s="3">
+        <v>44069.0</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153" s="4">
+        <v>208.0</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="I153" s="5"/>
     </row>
     <row r="154">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="I154" s="5"/>
+      <c r="A154" s="3">
+        <v>44070.0</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="4">
+        <v>5.07</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="I155" s="5"/>
+      <c r="A155" s="3">
+        <v>44071.0</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="I156" s="5"/>
+      <c r="A156" s="3">
+        <v>44071.0</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156" s="4">
+        <v>26.01</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I156" s="4"/>
     </row>
     <row r="157">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="I157" s="5"/>
+      <c r="A157" s="3">
+        <v>44071.0</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157" s="4">
+        <v>34.72</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="I158" s="5"/>
+      <c r="A158" s="3">
+        <v>44071.0</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158" s="4">
+        <v>41.2</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I158" s="4"/>
     </row>
     <row r="159">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="I159" s="5"/>
+      <c r="A159" s="3">
+        <v>44072.0</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="160">
-      <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="I160" s="5"/>
+      <c r="A160" s="3">
+        <v>44072.0</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="4">
+        <v>17.85</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="161">
-      <c r="A161" s="5"/>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="I161" s="5"/>
+      <c r="A161" s="3">
+        <v>44071.0</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E161" s="4">
+        <v>98.31</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="162">
-      <c r="A162" s="5"/>
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="I162" s="5"/>
+      <c r="A162" s="3">
+        <v>44072.0</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162" s="4">
+        <v>315.9</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="163">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="I163" s="5"/>
+      <c r="A163" s="3">
+        <v>44073.0</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="4">
+        <v>10.91</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="164">
-      <c r="A164" s="5"/>
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="I164" s="5"/>
+      <c r="A164" s="3">
+        <v>44074.0</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164" s="4">
+        <v>1736.85</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I164" s="4"/>
+      <c r="J164" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="I165" s="5"/>
+      <c r="A165" s="3">
+        <v>44074.0</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E165" s="4">
+        <v>66.61</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="166">
-      <c r="A166" s="5"/>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="I166" s="5"/>
+      <c r="A166" s="3">
+        <v>44075.0</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I166" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="167">
-      <c r="A167" s="5"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="I167" s="5"/>
+      <c r="A167" s="3">
+        <v>44075.0</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="4">
+        <v>16.38</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
+      <c r="A168" s="3">
+        <v>44075.0</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E168" s="4">
+        <v>3500.0</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="I168" s="5"/>
+      <c r="J168" s="4" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="169">
-      <c r="A169" s="5"/>
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
+      <c r="A169" s="3">
+        <v>44076.0</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E169" s="4">
+        <v>2961.08</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="I169" s="5"/>
     </row>
     <row r="170">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
+      <c r="A170" s="3">
+        <v>44077.0</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170" s="4">
+        <v>104.92</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="I170" s="5"/>
     </row>
     <row r="171">
@@ -12559,30 +13094,120 @@
       <c r="F1034" s="5"/>
       <c r="I1034" s="5"/>
     </row>
+    <row r="1035">
+      <c r="A1035" s="5"/>
+      <c r="B1035" s="5"/>
+      <c r="C1035" s="5"/>
+      <c r="D1035" s="5"/>
+      <c r="E1035" s="5"/>
+      <c r="F1035" s="5"/>
+      <c r="I1035" s="5"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="5"/>
+      <c r="B1036" s="5"/>
+      <c r="C1036" s="5"/>
+      <c r="D1036" s="5"/>
+      <c r="E1036" s="5"/>
+      <c r="F1036" s="5"/>
+      <c r="I1036" s="5"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="5"/>
+      <c r="B1037" s="5"/>
+      <c r="C1037" s="5"/>
+      <c r="D1037" s="5"/>
+      <c r="E1037" s="5"/>
+      <c r="F1037" s="5"/>
+      <c r="I1037" s="5"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="5"/>
+      <c r="B1038" s="5"/>
+      <c r="C1038" s="5"/>
+      <c r="D1038" s="5"/>
+      <c r="E1038" s="5"/>
+      <c r="F1038" s="5"/>
+      <c r="I1038" s="5"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="5"/>
+      <c r="B1039" s="5"/>
+      <c r="C1039" s="5"/>
+      <c r="D1039" s="5"/>
+      <c r="E1039" s="5"/>
+      <c r="F1039" s="5"/>
+      <c r="I1039" s="5"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="5"/>
+      <c r="B1040" s="5"/>
+      <c r="C1040" s="5"/>
+      <c r="D1040" s="5"/>
+      <c r="E1040" s="5"/>
+      <c r="F1040" s="5"/>
+      <c r="I1040" s="5"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="5"/>
+      <c r="B1041" s="5"/>
+      <c r="C1041" s="5"/>
+      <c r="D1041" s="5"/>
+      <c r="E1041" s="5"/>
+      <c r="F1041" s="5"/>
+      <c r="I1041" s="5"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="5"/>
+      <c r="B1042" s="5"/>
+      <c r="C1042" s="5"/>
+      <c r="D1042" s="5"/>
+      <c r="E1042" s="5"/>
+      <c r="F1042" s="5"/>
+      <c r="I1042" s="5"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="5"/>
+      <c r="B1043" s="5"/>
+      <c r="C1043" s="5"/>
+      <c r="D1043" s="5"/>
+      <c r="E1043" s="5"/>
+      <c r="F1043" s="5"/>
+      <c r="I1043" s="5"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="5"/>
+      <c r="B1044" s="5"/>
+      <c r="C1044" s="5"/>
+      <c r="D1044" s="5"/>
+      <c r="E1044" s="5"/>
+      <c r="F1044" s="5"/>
+      <c r="I1044" s="5"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I1034">
+    <dataValidation type="list" allowBlank="1" sqref="I2:I1044">
       <formula1>Items!$F$2:$F$1000</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="B2">
       <formula1>Items!$A$2:$A$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1034">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1044">
       <formula1>Items!$C$2:$C$1000</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A117 A119:A1034">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A117 A119:A1044">
       <formula1>OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B3:B1034">
+    <dataValidation type="list" allowBlank="1" sqref="B3:B1044">
       <formula1>"USD,NTD"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E117 E119:E1034">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E117 E119:E1044">
       <formula1>0.0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1034">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C1044">
       <formula1>Items!$B$2:$B$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F1034">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F1044">
       <formula1>Items!$D$2:$D$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -12666,8 +13291,8 @@
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3">
       <c r="A3" s="3">
@@ -12707,7 +13332,7 @@
         <v>1511.51</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>56</v>
@@ -12751,7 +13376,7 @@
         <v>2736.82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>56</v>
@@ -12774,10 +13399,10 @@
         <v>0.12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
@@ -12797,7 +13422,7 @@
         <v>2736.8</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>56</v>
@@ -12820,10 +13445,10 @@
         <v>977.0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
@@ -12843,10 +13468,10 @@
         <v>3036.0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11">
@@ -12866,7 +13491,7 @@
         <v>2736.82</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>56</v>
@@ -12889,10 +13514,10 @@
         <v>19965.0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
@@ -12912,10 +13537,10 @@
         <v>0.13</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
@@ -12935,7 +13560,7 @@
         <v>2736.81</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>56</v>
@@ -12958,10 +13583,10 @@
         <v>10.55</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
@@ -12981,10 +13606,10 @@
         <v>29965.0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -13004,7 +13629,7 @@
         <v>2736.8</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>56</v>
@@ -13027,10 +13652,10 @@
         <v>23.24</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
@@ -13050,19 +13675,34 @@
         <v>1571.12</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="A20" s="3">
+        <v>44064.0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5"/>
@@ -20980,28 +21620,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -21039,7 +21679,7 @@
         <v>418.87</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>13</v>
@@ -21074,7 +21714,7 @@
         <v>844.0</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="K3" s="5"/>
     </row>
@@ -21107,7 +21747,7 @@
         <v>700.0</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>13</v>
@@ -21172,7 +21812,7 @@
         <v>800.0</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>13</v>
@@ -21267,7 +21907,7 @@
         <v>800.0</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>13</v>
@@ -21290,10 +21930,10 @@
         <v>260.0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>9</v>
@@ -21332,28 +21972,75 @@
         <v>500.0</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="A12" s="3">
+        <v>44072.0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4">
+        <v>700.0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="4">
+        <v>700.0</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="A13" s="12">
+        <v>44076.0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4">
+        <v>30000.0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="4">
+        <v>30000.0</v>
+      </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14">
@@ -30289,10 +30976,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -30332,7 +31019,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
@@ -30352,12 +31039,12 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
@@ -30366,12 +31053,12 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
@@ -30388,7 +31075,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">

--- a/MoneyTracking.xlsx
+++ b/MoneyTracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="215">
   <si>
     <t>Date</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Internet,AT&amp;T</t>
+  </si>
+  <si>
+    <t>North Park</t>
   </si>
   <si>
     <t>Electricity,PG&amp;E</t>
@@ -259,16 +262,10 @@
     <t>Lemonade Insurance</t>
   </si>
   <si>
-    <t>Returning</t>
-  </si>
-  <si>
     <t>Bakingware</t>
   </si>
   <si>
     <t>Trarget</t>
-  </si>
-  <si>
-    <t>North Park</t>
   </si>
   <si>
     <t>conservice water 42.44, trash 39, sewer 32.82, service fee 4.55, common area 18.11</t>
@@ -373,16 +370,10 @@
     <t xml:space="preserve">Juice and </t>
   </si>
   <si>
-    <t>Venmo to Jaspher</t>
-  </si>
-  <si>
     <t>Uniqlo</t>
   </si>
   <si>
     <t>Bars, T-shirts, fanny bag, and hat</t>
-  </si>
-  <si>
-    <t>60/2, Venmo (splitwise)</t>
   </si>
   <si>
     <t>Cans and kibbles</t>
@@ -439,6 +430,156 @@
     <t>Sofi Riverview</t>
   </si>
   <si>
+    <t>AT&amp;T internet 100</t>
+  </si>
+  <si>
+    <t>dinnerware, chiar, and others</t>
+  </si>
+  <si>
+    <t>Home Depot</t>
+  </si>
+  <si>
+    <t>matress cover</t>
+  </si>
+  <si>
+    <t>CMU Tuition</t>
+  </si>
+  <si>
+    <t>including health insurance</t>
+  </si>
+  <si>
+    <t>Pho Viet</t>
+  </si>
+  <si>
+    <t>Phe 43 - Venmo balance 33.14</t>
+  </si>
+  <si>
+    <t>hooks, laundry softener, snacks and drinks, cat wetfood, sweeper and its wet refills</t>
+  </si>
+  <si>
+    <t>wetfood 3oz * 24 * 2 (23.25 * 2) + cat scratcher refills (4.48)</t>
+  </si>
+  <si>
+    <t>AT&amp;T Internet</t>
+  </si>
+  <si>
+    <t>Daiso</t>
+  </si>
+  <si>
+    <t>iDesign magnetic utensil holder</t>
+  </si>
+  <si>
+    <t>Easterly 眷湘</t>
+  </si>
+  <si>
+    <t>Sponge holder</t>
+  </si>
+  <si>
+    <t>13.32 + 0.39 Foreign transaction</t>
+  </si>
+  <si>
+    <t>USPS</t>
+  </si>
+  <si>
+    <t>DMV changing address</t>
+  </si>
+  <si>
+    <t>Spofity</t>
+  </si>
+  <si>
+    <t>Magnetic hooks, picnic blanket</t>
+  </si>
+  <si>
+    <t>Air purifier, S shape hanging hooks</t>
+  </si>
+  <si>
+    <t>Membership</t>
+  </si>
+  <si>
+    <t>Conservice fee</t>
+  </si>
+  <si>
+    <t>Printing</t>
+  </si>
+  <si>
+    <t>Nintendo</t>
+  </si>
+  <si>
+    <t>Disgaea 5</t>
+  </si>
+  <si>
+    <t>Clover Bakery Cafe</t>
+  </si>
+  <si>
+    <t>Ikea</t>
+  </si>
+  <si>
+    <t>Sleeping sofa, and misc</t>
+  </si>
+  <si>
+    <t>Pool chair</t>
+  </si>
+  <si>
+    <t>Sofi</t>
+  </si>
+  <si>
+    <t>Cans</t>
+  </si>
+  <si>
+    <t>Amazon, Whole Foods</t>
+  </si>
+  <si>
+    <t>Easterly 眷鄉</t>
+  </si>
+  <si>
+    <t>Brush</t>
+  </si>
+  <si>
+    <t>Costco Photo</t>
+  </si>
+  <si>
+    <t>passport photo</t>
+  </si>
+  <si>
+    <t>Leetcode</t>
+  </si>
+  <si>
+    <t>Flea treatment, trash bags, poop bag</t>
+  </si>
+  <si>
+    <t>Fine pink salt</t>
+  </si>
+  <si>
+    <t>Resistance tube, Cleansing water</t>
+  </si>
+  <si>
+    <t>cat toy self rotating ball, flat sheet</t>
+  </si>
+  <si>
+    <t>scratcher lounge</t>
+  </si>
+  <si>
+    <t>3 pieces patio set</t>
+  </si>
+  <si>
+    <t>pet shaver</t>
+  </si>
+  <si>
+    <t>13.59 + 0.4 foreign transaction fee</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>I-765, 13.66 + 1.08 envelope</t>
+  </si>
+  <si>
+    <t>TV stand, side table, ...</t>
+  </si>
+  <si>
+    <t>Gong Cha</t>
+  </si>
+  <si>
     <t>Paycheck/Salary</t>
   </si>
   <si>
@@ -476,6 +617,15 @@
   </si>
   <si>
     <t>0.4 - 0.1 Federal withholding</t>
+  </si>
+  <si>
+    <t>0.50 - 0.12 Federal withholding</t>
+  </si>
+  <si>
+    <t>0.04 - 0.01 Federal withholding</t>
+  </si>
+  <si>
+    <t>Unknown refund?</t>
   </si>
   <si>
     <t>FromBank</t>
@@ -534,11 +684,11 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
@@ -592,18 +742,18 @@
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -836,7 +986,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="15.57"/>
-    <col customWidth="1" min="4" max="4" width="12.29"/>
+    <col customWidth="1" min="4" max="4" width="21.29"/>
+    <col customWidth="1" min="7" max="7" width="22.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -867,8 +1018,6 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -1010,7 +1159,9 @@
       <c r="G6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="I6" s="5"/>
     </row>
     <row r="7">
@@ -1033,6 +1184,9 @@
         <v>20</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="5"/>
@@ -1083,9 +1237,8 @@
         <v>16</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="4"/>
+        <v>24</v>
+      </c>
       <c r="I9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1112,7 +1265,6 @@
       <c r="G10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1163,9 +1315,8 @@
         <v>16</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="4"/>
+        <v>25</v>
+      </c>
       <c r="I12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1216,7 +1367,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>13</v>
@@ -1239,10 +1390,10 @@
         <v>21.75</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -1266,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -1290,7 +1441,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>13</v>
@@ -1316,7 +1467,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>13</v>
@@ -1342,7 +1493,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>13</v>
@@ -1368,7 +1519,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>13</v>
@@ -1379,10 +1530,10 @@
         <v>43999.0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>11</v>
@@ -1394,7 +1545,7 @@
         <v>20</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -1403,10 +1554,10 @@
         <v>43999.0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>11</v>
@@ -1415,10 +1566,10 @@
         <v>396.0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I22" s="5"/>
     </row>
@@ -1427,10 +1578,10 @@
         <v>43999.0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>11</v>
@@ -1439,10 +1590,10 @@
         <v>244.0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I23" s="5"/>
     </row>
@@ -1451,10 +1602,10 @@
         <v>43999.0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>11</v>
@@ -1466,7 +1617,7 @@
         <v>20</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I24" s="5"/>
     </row>
@@ -1490,7 +1641,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>13</v>
@@ -1513,10 +1664,10 @@
         <v>14.99</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>13</v>
@@ -1542,7 +1693,7 @@
         <v>16</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>13</v>
@@ -1568,7 +1719,7 @@
         <v>14</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>13</v>
@@ -1620,7 +1771,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>13</v>
@@ -1646,7 +1797,7 @@
         <v>20</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>13</v>
@@ -1698,7 +1849,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>13</v>
@@ -1724,7 +1875,7 @@
         <v>14</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>13</v>
@@ -1750,7 +1901,7 @@
         <v>16</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>13</v>
@@ -1776,7 +1927,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>13</v>
@@ -1825,7 +1976,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>13</v>
@@ -1851,12 +2002,12 @@
         <v>20</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="I39" s="5"/>
-      <c r="J39" s="4" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="3">
@@ -1878,7 +2029,7 @@
         <v>14</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>13</v>
@@ -1904,7 +2055,7 @@
         <v>16</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>13</v>
@@ -1930,7 +2081,7 @@
         <v>16</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>13</v>
@@ -1953,10 +2104,10 @@
         <v>33.94</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I43" s="5"/>
     </row>
@@ -1977,10 +2128,10 @@
         <v>37.71</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>13</v>
@@ -2006,7 +2157,7 @@
         <v>16</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>13</v>
@@ -2032,7 +2183,7 @@
         <v>16</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>13</v>
@@ -2084,7 +2235,7 @@
         <v>16</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>13</v>
@@ -2110,7 +2261,7 @@
         <v>14</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>13</v>
@@ -2133,10 +2284,10 @@
         <v>70.83</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>13</v>
@@ -2159,10 +2310,10 @@
         <v>185.24</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>13</v>
@@ -2188,7 +2339,7 @@
         <v>14</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>13</v>
@@ -2211,10 +2362,10 @@
         <v>94.11</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>13</v>
@@ -2241,7 +2392,7 @@
         <v>16</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>13</v>
@@ -2264,10 +2415,10 @@
         <v>46.51</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>13</v>
@@ -2293,7 +2444,7 @@
         <v>16</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>13</v>
@@ -2319,7 +2470,7 @@
         <v>14</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>13</v>
@@ -2342,10 +2493,10 @@
         <v>30.14</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I58" s="4"/>
     </row>
@@ -2369,7 +2520,7 @@
         <v>16</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>13</v>
@@ -2386,40 +2537,38 @@
         <v>10</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E60" s="7">
         <v>14.19</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H60" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="I60" s="6"/>
-      <c r="J60" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="8"/>
-      <c r="X60" s="8"/>
-      <c r="Y60" s="8"/>
-      <c r="Z60" s="8"/>
-      <c r="AA60" s="8"/>
-      <c r="AB60" s="8"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
+      <c r="AB60" s="9"/>
     </row>
     <row r="61">
       <c r="A61" s="3">
@@ -2441,7 +2590,7 @@
         <v>16</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>13</v>
@@ -2493,7 +2642,7 @@
         <v>16</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>13</v>
@@ -2516,10 +2665,10 @@
         <v>14.99</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>13</v>
@@ -2571,6 +2720,9 @@
         <v>20</v>
       </c>
       <c r="G66" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I66" s="5"/>
@@ -2597,6 +2749,9 @@
       <c r="G67" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="H67" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="I67" s="5"/>
     </row>
     <row r="68">
@@ -2610,7 +2765,7 @@
         <v>10</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E68" s="4">
         <v>87.39</v>
@@ -2619,7 +2774,7 @@
         <v>20</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I68" s="4"/>
     </row>
@@ -2643,7 +2798,7 @@
         <v>16</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>13</v>
@@ -2660,16 +2815,16 @@
         <v>10</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E70" s="4">
         <v>10000.0</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I70" s="4"/>
     </row>
@@ -2690,10 +2845,10 @@
         <v>50.0</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>13</v>
@@ -2736,21 +2891,21 @@
         <v>10</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E73" s="4">
         <v>18.39</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="I73" s="4"/>
-      <c r="J73" s="4" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="3">
@@ -2798,7 +2953,7 @@
         <v>14</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>13</v>
@@ -2824,7 +2979,7 @@
         <v>16</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>13</v>
@@ -2850,7 +3005,7 @@
         <v>16</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>13</v>
@@ -2876,7 +3031,7 @@
         <v>14</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>13</v>
@@ -2928,7 +3083,7 @@
         <v>20</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>13</v>
@@ -2954,7 +3109,7 @@
         <v>16</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>13</v>
@@ -2980,7 +3135,7 @@
         <v>14</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>13</v>
@@ -3006,7 +3161,7 @@
         <v>16</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>13</v>
@@ -3032,7 +3187,7 @@
         <v>14</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>13</v>
@@ -3043,10 +3198,10 @@
         <v>44039.0</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>19</v>
@@ -3058,7 +3213,7 @@
         <v>20</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I85" s="5"/>
     </row>
@@ -3067,10 +3222,10 @@
         <v>44039.0</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>19</v>
@@ -3079,10 +3234,10 @@
         <v>510.0</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I86" s="5"/>
     </row>
@@ -3091,10 +3246,10 @@
         <v>44039.0</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>19</v>
@@ -3103,10 +3258,10 @@
         <v>836.0</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I87" s="5"/>
     </row>
@@ -3127,16 +3282,16 @@
         <v>6.16</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="89">
@@ -3150,7 +3305,7 @@
         <v>10</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E89" s="4">
         <v>109.24</v>
@@ -3159,12 +3314,12 @@
         <v>20</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="I89" s="4"/>
-      <c r="J89" s="4" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="3">
@@ -3177,21 +3332,21 @@
         <v>10</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E90" s="4">
         <v>14.19</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="I90" s="4"/>
-      <c r="J90" s="4" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="3">
@@ -3204,7 +3359,7 @@
         <v>10</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E91" s="4">
         <v>7.61</v>
@@ -3213,12 +3368,12 @@
         <v>20</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="I91" s="4"/>
-      <c r="J91" s="4" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="3">
@@ -3231,7 +3386,7 @@
         <v>10</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E92" s="4">
         <v>78.43</v>
@@ -3240,12 +3395,12 @@
         <v>20</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="I92" s="4"/>
-      <c r="J92" s="4" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="3">
@@ -3267,7 +3422,7 @@
         <v>20</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>13</v>
@@ -3290,10 +3445,10 @@
         <v>16.86</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I94" s="4" t="s">
         <v>13</v>
@@ -3310,7 +3465,7 @@
         <v>10</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E95" s="4">
         <v>29.7</v>
@@ -3319,15 +3474,12 @@
         <v>20</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I95" s="5"/>
-      <c r="J95" s="4" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="3">
@@ -3346,10 +3498,10 @@
         <v>29.7</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I96" s="5"/>
     </row>
@@ -3373,7 +3525,7 @@
         <v>16</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I97" s="5"/>
     </row>
@@ -3423,7 +3575,7 @@
         <v>16</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I99" s="4" t="s">
         <v>13</v>
@@ -3449,7 +3601,7 @@
         <v>16</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I100" s="4" t="s">
         <v>13</v>
@@ -3475,12 +3627,12 @@
         <v>20</v>
       </c>
       <c r="G101" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I101" s="4"/>
-      <c r="J101" s="4" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="3">
@@ -3528,7 +3680,7 @@
         <v>16</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I103" s="4" t="s">
         <v>13</v>
@@ -3554,6 +3706,9 @@
         <v>20</v>
       </c>
       <c r="G104" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H104" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I104" s="4"/>
@@ -3569,21 +3724,21 @@
         <v>10</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E105" s="4">
         <v>122.6</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G105" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H105" s="4" t="s">
         <v>86</v>
       </c>
       <c r="I105" s="5"/>
-      <c r="J105" s="4" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="3">
@@ -3596,21 +3751,21 @@
         <v>10</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E106" s="4">
         <v>16.37</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="I106" s="4"/>
-      <c r="J106" s="4" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="3">
@@ -3623,7 +3778,7 @@
         <v>10</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E107" s="4">
         <v>21.84</v>
@@ -3632,12 +3787,12 @@
         <v>20</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="I107" s="4"/>
-      <c r="J107" s="4" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="3">
@@ -3659,7 +3814,7 @@
         <v>20</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I108" s="4" t="s">
         <v>13</v>
@@ -3685,7 +3840,7 @@
         <v>14</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I109" s="4" t="s">
         <v>13</v>
@@ -3711,13 +3866,13 @@
         <v>20</v>
       </c>
       <c r="G110" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H110" s="4" t="s">
         <v>91</v>
       </c>
       <c r="I110" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="J110" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="111">
@@ -3737,10 +3892,10 @@
         <v>38.13</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I111" s="4" t="s">
         <v>13</v>
@@ -3766,13 +3921,13 @@
         <v>14</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="I112" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="J112" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="113">
@@ -3795,7 +3950,7 @@
         <v>14</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I113" s="4" t="s">
         <v>13</v>
@@ -3812,21 +3967,21 @@
         <v>10</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E114" s="4">
         <v>125.0</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G114" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H114" s="4" t="s">
         <v>94</v>
       </c>
       <c r="I114" s="4"/>
-      <c r="J114" s="4" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="3">
@@ -3848,7 +4003,7 @@
         <v>14</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I115" s="4" t="s">
         <v>13</v>
@@ -3871,10 +4026,10 @@
         <v>111.54</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I116" s="4" t="s">
         <v>13</v>
@@ -3900,7 +4055,7 @@
         <v>16</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I117" s="4" t="s">
         <v>13</v>
@@ -3928,11 +4083,11 @@
       <c r="G118" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="H118" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="I118" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="J118" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="119">
@@ -3946,16 +4101,16 @@
         <v>10</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E119" s="4">
         <v>205.0</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I119" s="4"/>
     </row>
@@ -3976,10 +4131,10 @@
         <v>28.77</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I120" s="4" t="s">
         <v>13</v>
@@ -4005,7 +4160,7 @@
         <v>16</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I121" s="4" t="s">
         <v>13</v>
@@ -4022,7 +4177,7 @@
         <v>10</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E122" s="4">
         <v>40.56</v>
@@ -4031,7 +4186,7 @@
         <v>20</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I122" s="4"/>
     </row>
@@ -4055,7 +4210,7 @@
         <v>20</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I123" s="4" t="s">
         <v>13</v>
@@ -4098,7 +4253,7 @@
         <v>10</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E125" s="4">
         <v>50.23</v>
@@ -4107,12 +4262,12 @@
         <v>20</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="I125" s="5"/>
-      <c r="J125" s="4" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="3">
@@ -4131,15 +4286,15 @@
         <v>31.64</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="I126" s="5"/>
-      <c r="J126" s="4" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="3">
@@ -4152,7 +4307,7 @@
         <v>10</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E127" s="4">
         <v>655.49</v>
@@ -4161,12 +4316,12 @@
         <v>20</v>
       </c>
       <c r="G127" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H127" s="4" t="s">
         <v>104</v>
       </c>
       <c r="I127" s="5"/>
-      <c r="J127" s="4" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="3">
@@ -4186,16 +4341,16 @@
         <v>13.66</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G128" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H128" s="4" t="s">
         <v>106</v>
       </c>
       <c r="I128" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="129">
@@ -4218,7 +4373,7 @@
         <v>16</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I129" s="4" t="s">
         <v>13</v>
@@ -4241,16 +4396,16 @@
         <v>3.57</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G130" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H130" s="4" t="s">
         <v>108</v>
       </c>
       <c r="I130" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="131">
@@ -4258,10 +4413,10 @@
         <v>44056.0</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>19</v>
@@ -4270,10 +4425,10 @@
         <v>835.0</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I131" s="5"/>
     </row>
@@ -4323,7 +4478,7 @@
         <v>16</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I133" s="4" t="s">
         <v>13</v>
@@ -4340,21 +4495,21 @@
         <v>10</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E134" s="4">
         <v>18.39</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="I134" s="4"/>
-      <c r="J134" s="4" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="135" ht="15.0" customHeight="1">
       <c r="A135" s="3">
@@ -4367,7 +4522,7 @@
         <v>10</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E135" s="4">
         <v>9.82</v>
@@ -4376,12 +4531,12 @@
         <v>20</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="I135" s="4"/>
-      <c r="J135" s="4" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="136" ht="15.0" customHeight="1">
       <c r="A136" s="3">
@@ -4403,7 +4558,7 @@
         <v>14</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I136" s="4"/>
     </row>
@@ -4424,16 +4579,16 @@
         <v>172.22</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G137" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H137" s="4" t="s">
         <v>113</v>
       </c>
       <c r="I137" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="J137" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="138">
@@ -4456,13 +4611,13 @@
         <v>20</v>
       </c>
       <c r="G138" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H138" s="4" t="s">
         <v>115</v>
       </c>
       <c r="I138" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="J138" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="139">
@@ -4485,7 +4640,7 @@
         <v>20</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I139" s="4" t="s">
         <v>13</v>
@@ -4513,16 +4668,16 @@
       <c r="G140" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="H140" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="I140" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J140" s="4" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="3">
-        <v>44063.0</v>
+        <v>44064.0</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>9</v>
@@ -4531,21 +4686,21 @@
         <v>10</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E141" s="4">
-        <v>2.4</v>
+        <v>125.97</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>52</v>
+        <v>118</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="I141" s="5"/>
-      <c r="J141" s="4" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="3">
@@ -4558,20 +4713,20 @@
         <v>10</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="E142" s="4">
-        <v>125.97</v>
+        <v>63.68</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I142" s="5"/>
-      <c r="J142" s="4" t="s">
-        <v>121</v>
+        <v>43</v>
+      </c>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="143">
@@ -4585,20 +4740,22 @@
         <v>10</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E143" s="4">
-        <v>30.0</v>
+        <v>118.49</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I143" s="5"/>
-      <c r="J143" s="4" t="s">
-        <v>122</v>
+        <v>54</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="144">
@@ -4615,18 +4772,17 @@
         <v>11</v>
       </c>
       <c r="E144" s="4">
-        <v>63.68</v>
+        <v>29.77</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I144" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J144" s="4"/>
     </row>
     <row r="145">
       <c r="A145" s="3">
@@ -4639,27 +4795,25 @@
         <v>10</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E145" s="4">
-        <v>118.49</v>
+        <v>14.19</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I145" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J145" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I145" s="4"/>
     </row>
     <row r="146">
       <c r="A146" s="3">
-        <v>44064.0</v>
+        <v>44065.0</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>9</v>
@@ -4671,13 +4825,16 @@
         <v>11</v>
       </c>
       <c r="E146" s="4">
-        <v>29.77</v>
+        <v>74.62</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>24</v>
+        <v>122</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="I146" s="4" t="s">
         <v>13</v>
@@ -4685,7 +4842,7 @@
     </row>
     <row r="147">
       <c r="A147" s="3">
-        <v>44064.0</v>
+        <v>44067.0</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>9</v>
@@ -4694,25 +4851,27 @@
         <v>10</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="E147" s="4">
-        <v>14.19</v>
+        <v>0.31</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H147" s="4" t="s">
         <v>124</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3">
-        <v>44065.0</v>
+        <v>44067.0</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>9</v>
@@ -4724,19 +4883,16 @@
         <v>11</v>
       </c>
       <c r="E148" s="4">
-        <v>74.62</v>
+        <v>57.7</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="I148" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="J148" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="149">
@@ -4753,19 +4909,19 @@
         <v>11</v>
       </c>
       <c r="E149" s="4">
-        <v>0.31</v>
+        <v>9.26</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>108</v>
+        <v>125</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="I149" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="J149" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="150">
@@ -4782,13 +4938,13 @@
         <v>11</v>
       </c>
       <c r="E150" s="4">
-        <v>57.7</v>
+        <v>34.19</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I150" s="4" t="s">
         <v>13</v>
@@ -4796,36 +4952,31 @@
     </row>
     <row r="151">
       <c r="A151" s="3">
-        <v>44067.0</v>
+        <v>44069.0</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E151" s="4">
-        <v>9.26</v>
+        <v>208.0</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I151" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J151" s="4" t="s">
-        <v>129</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I151" s="5"/>
     </row>
     <row r="152">
       <c r="A152" s="3">
-        <v>44067.0</v>
+        <v>44070.0</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>9</v>
@@ -4837,13 +4988,16 @@
         <v>11</v>
       </c>
       <c r="E152" s="4">
-        <v>34.19</v>
+        <v>5.07</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="I152" s="4" t="s">
         <v>13</v>
@@ -4851,31 +5005,33 @@
     </row>
     <row r="153">
       <c r="A153" s="3">
-        <v>44069.0</v>
+        <v>44071.0</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E153" s="4">
-        <v>208.0</v>
+        <v>5.85</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I153" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="3">
-        <v>44070.0</v>
+        <v>44071.0</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>9</v>
@@ -4884,23 +5040,18 @@
         <v>10</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E154" s="4">
-        <v>5.07</v>
+        <v>26.01</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I154" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J154" s="4" t="s">
-        <v>130</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I154" s="4"/>
     </row>
     <row r="155">
       <c r="A155" s="3">
@@ -4913,20 +5064,21 @@
         <v>10</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E155" s="4">
-        <v>5.85</v>
+        <v>34.72</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I155" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I155" s="4"/>
     </row>
     <row r="156">
       <c r="A156" s="3">
@@ -4942,19 +5094,19 @@
         <v>19</v>
       </c>
       <c r="E156" s="4">
-        <v>26.01</v>
+        <v>41.2</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I156" s="4"/>
     </row>
     <row r="157">
       <c r="A157" s="3">
-        <v>44071.0</v>
+        <v>44072.0</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>9</v>
@@ -4963,25 +5115,27 @@
         <v>10</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E157" s="4">
-        <v>34.72</v>
+        <v>5.0</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3">
-        <v>44071.0</v>
+        <v>44072.0</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>9</v>
@@ -4990,22 +5144,24 @@
         <v>10</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E158" s="4">
-        <v>41.2</v>
+        <v>17.85</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I158" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="3">
-        <v>44072.0</v>
+        <v>44071.0</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>9</v>
@@ -5014,20 +5170,21 @@
         <v>10</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E159" s="4">
-        <v>5.0</v>
+        <v>98.31</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I159" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I159" s="4"/>
     </row>
     <row r="160">
       <c r="A160" s="3">
@@ -5043,13 +5200,13 @@
         <v>11</v>
       </c>
       <c r="E160" s="4">
-        <v>17.85</v>
+        <v>315.9</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="I160" s="4" t="s">
         <v>13</v>
@@ -5057,7 +5214,7 @@
     </row>
     <row r="161">
       <c r="A161" s="3">
-        <v>44071.0</v>
+        <v>44073.0</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>9</v>
@@ -5066,25 +5223,27 @@
         <v>10</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E161" s="4">
-        <v>98.31</v>
+        <v>10.91</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I161" s="4"/>
-      <c r="J161" s="4" t="s">
-        <v>132</v>
+        <v>57</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3">
-        <v>44072.0</v>
+        <v>44074.0</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>9</v>
@@ -5093,24 +5252,25 @@
         <v>10</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E162" s="4">
-        <v>315.9</v>
+        <v>1736.85</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I162" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I162" s="4"/>
     </row>
     <row r="163">
       <c r="A163" s="3">
-        <v>44073.0</v>
+        <v>44074.0</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>9</v>
@@ -5119,27 +5279,25 @@
         <v>10</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E163" s="4">
-        <v>10.91</v>
+        <v>66.61</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I163" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J163" s="4" t="s">
-        <v>134</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I163" s="4"/>
     </row>
     <row r="164">
       <c r="A164" s="3">
-        <v>44074.0</v>
+        <v>44075.0</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>9</v>
@@ -5148,25 +5306,24 @@
         <v>10</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E164" s="4">
-        <v>1736.85</v>
+        <v>5.85</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I164" s="4"/>
-      <c r="J164" s="4" t="s">
-        <v>135</v>
+        <v>95</v>
+      </c>
+      <c r="I164" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3">
-        <v>44074.0</v>
+        <v>44075.0</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>9</v>
@@ -5175,20 +5332,19 @@
         <v>10</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="E165" s="4">
-        <v>66.61</v>
+        <v>16.38</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I165" s="4"/>
-      <c r="J165" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="I165" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="166">
@@ -5202,24 +5358,25 @@
         <v>10</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="E166" s="4">
-        <v>5.85</v>
+        <v>3500.0</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I166" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I166" s="5"/>
     </row>
     <row r="167">
       <c r="A167" s="3">
-        <v>44075.0</v>
+        <v>44076.0</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>9</v>
@@ -5228,24 +5385,22 @@
         <v>10</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="E167" s="4">
-        <v>16.38</v>
+        <v>2961.08</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I167" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="I167" s="5"/>
     </row>
     <row r="168">
       <c r="A168" s="3">
-        <v>44075.0</v>
+        <v>44077.0</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>9</v>
@@ -5254,25 +5409,22 @@
         <v>10</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E168" s="4">
-        <v>3500.0</v>
+        <v>104.92</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I168" s="5"/>
-      <c r="J168" s="4" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="3">
-        <v>44076.0</v>
+        <v>44077.0</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>9</v>
@@ -5281,18 +5433,23 @@
         <v>10</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="E169" s="4">
-        <v>2961.08</v>
+        <v>100.0</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I169" s="5"/>
+        <v>138</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="3">
@@ -5305,684 +5462,2034 @@
         <v>10</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E170" s="4">
-        <v>104.92</v>
+        <v>200.62</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G170" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I170" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3">
+        <v>44077.0</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="4">
+        <v>25.07</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3">
+        <v>44077.0</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" s="4">
+        <v>81.44</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3">
+        <v>44078.0</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I173" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3">
+        <v>44078.0</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="4">
+        <v>14.15</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G174" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="I170" s="5"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="5"/>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="I171" s="5"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="5"/>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="I172" s="5"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="5"/>
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="I173" s="5"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="5"/>
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="I174" s="5"/>
+      <c r="H174" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I174" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="175">
-      <c r="A175" s="5"/>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="I175" s="5"/>
+      <c r="A175" s="3">
+        <v>44078.0</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E175" s="4">
+        <v>28085.0</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I175" s="4"/>
     </row>
     <row r="176">
-      <c r="A176" s="5"/>
-      <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-      <c r="I176" s="5"/>
+      <c r="A176" s="3">
+        <v>44079.0</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E176" s="4">
+        <f>43 - 33.14</f>
+        <v>9.86</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I176" s="4"/>
     </row>
     <row r="177">
-      <c r="A177" s="5"/>
-      <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
-      <c r="I177" s="5"/>
+      <c r="A177" s="3">
+        <v>44080.0</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177" s="4">
+        <f>197.8-23.89</f>
+        <v>173.91</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I177" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="178">
-      <c r="A178" s="5"/>
-      <c r="B178" s="5"/>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
+      <c r="A178" s="3">
+        <v>44080.0</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E178" s="4">
+        <v>54.71</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="I178" s="5"/>
     </row>
     <row r="179">
-      <c r="A179" s="5"/>
-      <c r="B179" s="5"/>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="5"/>
+      <c r="A179" s="3">
+        <v>44081.0</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E179" s="4">
+        <v>30.0</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="I179" s="5"/>
     </row>
     <row r="180">
-      <c r="A180" s="5"/>
-      <c r="B180" s="5"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
+      <c r="A180" s="3">
+        <v>44081.0</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E180" s="4">
+        <v>76.98</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="I180" s="5"/>
     </row>
     <row r="181">
-      <c r="A181" s="5"/>
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
+      <c r="A181" s="3">
+        <v>44083.0</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E181" s="4">
+        <v>31.9</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I181" s="5"/>
     </row>
     <row r="182">
-      <c r="A182" s="5"/>
-      <c r="B182" s="5"/>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
+      <c r="A182" s="3">
+        <v>44083.0</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E182" s="4">
+        <v>228.49</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="I182" s="5"/>
     </row>
     <row r="183">
-      <c r="A183" s="5"/>
-      <c r="B183" s="5"/>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="5"/>
-      <c r="I183" s="5"/>
+      <c r="A183" s="3">
+        <v>44083.0</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" s="4">
+        <v>24.65</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="184">
-      <c r="A184" s="5"/>
-      <c r="B184" s="5"/>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-      <c r="I184" s="5"/>
+      <c r="A184" s="3">
+        <v>44083.0</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="4">
+        <v>8.15</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I184" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="185">
-      <c r="A185" s="5"/>
-      <c r="B185" s="5"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="5"/>
-      <c r="I185" s="5"/>
+      <c r="A185" s="3">
+        <v>44083.0</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" s="4">
+        <v>167.28</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="186">
-      <c r="A186" s="5"/>
-      <c r="B186" s="5"/>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="I186" s="5"/>
+      <c r="A186" s="3">
+        <v>44085.0</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" s="4">
+        <v>25.13</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I186" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="187">
-      <c r="A187" s="5"/>
-      <c r="B187" s="5"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-      <c r="I187" s="5"/>
+      <c r="A187" s="3">
+        <v>44085.0</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" s="4">
+        <v>13.97</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I187" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="188">
-      <c r="A188" s="5"/>
-      <c r="B188" s="5"/>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
-      <c r="I188" s="5"/>
+      <c r="A188" s="3">
+        <v>44085.0</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E188" s="4">
+        <v>12.48</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H188" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I188" s="4"/>
     </row>
     <row r="189">
-      <c r="A189" s="5"/>
-      <c r="B189" s="5"/>
-      <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-      <c r="I189" s="5"/>
+      <c r="A189" s="3">
+        <v>44086.0</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189" s="4">
+        <v>29.97</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I189" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="190">
-      <c r="A190" s="5"/>
-      <c r="B190" s="5"/>
-      <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
-      <c r="F190" s="5"/>
-      <c r="I190" s="5"/>
+      <c r="A190" s="3">
+        <v>44086.0</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190" s="4">
+        <v>6.43</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I190" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="191">
-      <c r="A191" s="5"/>
-      <c r="B191" s="5"/>
-      <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
-      <c r="F191" s="5"/>
-      <c r="I191" s="5"/>
+      <c r="A191" s="3">
+        <v>44088.0</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" s="4">
+        <f>13.32 + 0.39</f>
+        <v>13.71</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H191" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I191" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="192">
-      <c r="A192" s="5"/>
-      <c r="B192" s="5"/>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
-      <c r="F192" s="5"/>
-      <c r="I192" s="5"/>
+      <c r="A192" s="3">
+        <v>44092.0</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192" s="4">
+        <v>0.55</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I192" s="4"/>
     </row>
     <row r="193">
-      <c r="A193" s="5"/>
-      <c r="B193" s="5"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
-      <c r="I193" s="5"/>
+      <c r="A193" s="3">
+        <v>44092.0</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193" s="4">
+        <v>123.01</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I193" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="194">
-      <c r="A194" s="5"/>
-      <c r="B194" s="5"/>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
-      <c r="I194" s="5"/>
+      <c r="A194" s="3">
+        <v>44092.0</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194" s="4">
+        <v>98.05</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I194" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="195">
-      <c r="A195" s="5"/>
-      <c r="B195" s="5"/>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
+      <c r="A195" s="3">
+        <v>44092.0</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E195" s="4">
+        <v>42.31</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="I195" s="5"/>
     </row>
     <row r="196">
-      <c r="A196" s="5"/>
-      <c r="B196" s="5"/>
-      <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
-      <c r="F196" s="5"/>
+      <c r="A196" s="3">
+        <v>44092.0</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E196" s="4">
+        <v>44.8</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="I196" s="5"/>
     </row>
     <row r="197">
-      <c r="A197" s="5"/>
-      <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
-      <c r="I197" s="5"/>
+      <c r="A197" s="3">
+        <v>44094.0</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197" s="4">
+        <v>10.97</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I197" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="198">
-      <c r="A198" s="5"/>
-      <c r="B198" s="5"/>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
-      <c r="F198" s="5"/>
+      <c r="A198" s="3">
+        <v>44095.0</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E198" s="4">
+        <v>199.0</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="I198" s="5"/>
     </row>
     <row r="199">
-      <c r="A199" s="5"/>
-      <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
+      <c r="A199" s="3">
+        <v>44095.0</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E199" s="4">
+        <v>227.0</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="I199" s="5"/>
     </row>
     <row r="200">
-      <c r="A200" s="5"/>
-      <c r="B200" s="5"/>
-      <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
-      <c r="F200" s="5"/>
-      <c r="I200" s="5"/>
+      <c r="A200" s="3">
+        <v>44096.0</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E200" s="4">
+        <v>59.35</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H200" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I200" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="201">
-      <c r="A201" s="5"/>
-      <c r="B201" s="5"/>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5"/>
-      <c r="E201" s="5"/>
-      <c r="F201" s="5"/>
-      <c r="I201" s="5"/>
+      <c r="A201" s="3">
+        <v>44096.0</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E201" s="4">
+        <v>215.39</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I201" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="202">
-      <c r="A202" s="5"/>
-      <c r="B202" s="5"/>
-      <c r="C202" s="5"/>
-      <c r="D202" s="5"/>
-      <c r="E202" s="5"/>
-      <c r="F202" s="5"/>
-      <c r="I202" s="5"/>
+      <c r="A202" s="3">
+        <v>44097.0</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202" s="4">
+        <v>53.14</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I202" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="203">
-      <c r="A203" s="5"/>
-      <c r="B203" s="5"/>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
-      <c r="E203" s="5"/>
-      <c r="F203" s="5"/>
-      <c r="I203" s="5"/>
+      <c r="A203" s="3">
+        <v>44098.0</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E203" s="4">
+        <v>59.99</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I203" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="204">
-      <c r="A204" s="5"/>
-      <c r="B204" s="5"/>
-      <c r="C204" s="5"/>
-      <c r="D204" s="5"/>
-      <c r="E204" s="5"/>
-      <c r="F204" s="5"/>
+      <c r="A204" s="3">
+        <v>44098.0</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E204" s="4">
+        <v>66.19</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H204" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="I204" s="5"/>
     </row>
     <row r="205">
-      <c r="A205" s="5"/>
-      <c r="B205" s="5"/>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
-      <c r="F205" s="5"/>
-      <c r="I205" s="5"/>
+      <c r="A205" s="3">
+        <v>44099.0</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E205" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G205" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H205" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I205" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="206">
-      <c r="A206" s="5"/>
-      <c r="B206" s="5"/>
-      <c r="C206" s="5"/>
-      <c r="D206" s="5"/>
-      <c r="E206" s="5"/>
-      <c r="F206" s="5"/>
+      <c r="A206" s="3">
+        <v>44099.0</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E206" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H206" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="I206" s="5"/>
     </row>
     <row r="207">
-      <c r="A207" s="5"/>
-      <c r="B207" s="5"/>
-      <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
-      <c r="I207" s="5"/>
+      <c r="A207" s="3">
+        <v>44099.0</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207" s="4">
+        <v>19.99</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H207" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I207" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="208">
-      <c r="A208" s="5"/>
-      <c r="B208" s="5"/>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
-      <c r="F208" s="5"/>
-      <c r="I208" s="5"/>
+      <c r="A208" s="3">
+        <v>44099.0</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E208" s="4">
+        <v>95.46</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I208" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="209">
-      <c r="A209" s="5"/>
-      <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-      <c r="I209" s="5"/>
+      <c r="A209" s="3">
+        <v>44099.0</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209" s="4">
+        <v>8.25</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I209" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="210">
-      <c r="A210" s="5"/>
-      <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
-      <c r="I210" s="5"/>
+      <c r="A210" s="3">
+        <v>44099.0</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E210" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H210" s="4"/>
+      <c r="I210" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="211">
-      <c r="A211" s="5"/>
-      <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
-      <c r="E211" s="5"/>
-      <c r="F211" s="5"/>
-      <c r="I211" s="5"/>
+      <c r="A211" s="3">
+        <v>44100.0</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" s="4">
+        <v>934.57</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H211" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I211" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="212">
-      <c r="A212" s="5"/>
-      <c r="B212" s="5"/>
-      <c r="C212" s="5"/>
-      <c r="D212" s="5"/>
-      <c r="E212" s="5"/>
-      <c r="F212" s="5"/>
-      <c r="I212" s="5"/>
+      <c r="A212" s="3">
+        <v>44100.0</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E212" s="4">
+        <f>8.84-8.84</f>
+        <v>0</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G212" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H212" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="I212" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="213">
-      <c r="A213" s="5"/>
-      <c r="B213" s="5"/>
-      <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
-      <c r="F213" s="5"/>
+      <c r="A213" s="3">
+        <v>44101.0</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E213" s="4">
+        <v>64.57</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H213" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="I213" s="5"/>
     </row>
     <row r="214">
-      <c r="A214" s="5"/>
-      <c r="B214" s="5"/>
-      <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
-      <c r="E214" s="5"/>
-      <c r="F214" s="5"/>
-      <c r="I214" s="5"/>
+      <c r="A214" s="3">
+        <v>44104.0</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E214" s="4">
+        <f>5 - 4.15</f>
+        <v>0.85</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H214" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I214" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="215">
-      <c r="A215" s="5"/>
-      <c r="B215" s="5"/>
-      <c r="C215" s="5"/>
-      <c r="D215" s="5"/>
-      <c r="E215" s="5"/>
-      <c r="F215" s="5"/>
-      <c r="I215" s="5"/>
+      <c r="A215" s="3">
+        <v>44104.0</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E215" s="4">
+        <v>23.77</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I215" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="216">
-      <c r="A216" s="5"/>
-      <c r="B216" s="5"/>
-      <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
-      <c r="E216" s="5"/>
-      <c r="F216" s="5"/>
-      <c r="I216" s="5"/>
+      <c r="A216" s="3">
+        <v>44105.0</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E216" s="4">
+        <v>5.09</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H216" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I216" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="217">
-      <c r="A217" s="5"/>
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
-      <c r="F217" s="5"/>
-      <c r="I217" s="5"/>
+      <c r="A217" s="3">
+        <v>44106.0</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E217" s="4">
+        <v>43.87</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H217" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I217" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="218">
-      <c r="A218" s="5"/>
-      <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-      <c r="I218" s="5"/>
+      <c r="A218" s="3">
+        <v>44107.0</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E218" s="4">
+        <v>58.13</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G218" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I218" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="219">
-      <c r="A219" s="5"/>
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5"/>
-      <c r="I219" s="5"/>
+      <c r="A219" s="3">
+        <v>44107.0</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E219" s="4">
+        <v>52.29</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I219" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="220">
-      <c r="A220" s="5"/>
-      <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
-      <c r="D220" s="5"/>
-      <c r="E220" s="5"/>
-      <c r="F220" s="5"/>
-      <c r="I220" s="5"/>
+      <c r="A220" s="3">
+        <v>44107.0</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E220" s="4">
+        <v>16.88</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I220" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="221">
-      <c r="A221" s="5"/>
-      <c r="B221" s="5"/>
-      <c r="C221" s="5"/>
-      <c r="D221" s="5"/>
-      <c r="E221" s="5"/>
-      <c r="F221" s="5"/>
+      <c r="A221" s="11">
+        <v>44109.0</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E221" s="4">
+        <v>42.55</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H221" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="I221" s="5"/>
     </row>
     <row r="222">
-      <c r="A222" s="5"/>
-      <c r="B222" s="5"/>
-      <c r="C222" s="5"/>
-      <c r="D222" s="5"/>
-      <c r="E222" s="5"/>
-      <c r="F222" s="5"/>
-      <c r="I222" s="5"/>
+      <c r="A222" s="3">
+        <v>44113.0</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E222" s="4">
+        <v>12.01</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H222" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I222" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="223">
-      <c r="A223" s="5"/>
-      <c r="B223" s="5"/>
-      <c r="C223" s="5"/>
-      <c r="D223" s="5"/>
-      <c r="E223" s="5"/>
-      <c r="F223" s="5"/>
-      <c r="I223" s="5"/>
+      <c r="A223" s="3">
+        <v>44113.0</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E223" s="4">
+        <v>20.92</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I223" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="224">
-      <c r="A224" s="5"/>
-      <c r="B224" s="5"/>
-      <c r="C224" s="5"/>
-      <c r="D224" s="5"/>
-      <c r="E224" s="5"/>
-      <c r="F224" s="5"/>
-      <c r="I224" s="5"/>
+      <c r="A224" s="3">
+        <v>44113.0</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E224" s="4">
+        <v>6.53</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G224" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H224" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I224" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="225">
-      <c r="A225" s="5"/>
-      <c r="B225" s="5"/>
-      <c r="C225" s="5"/>
-      <c r="D225" s="5"/>
-      <c r="E225" s="5"/>
-      <c r="F225" s="5"/>
-      <c r="I225" s="5"/>
+      <c r="A225" s="3">
+        <v>44113.0</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E225" s="4">
+        <v>78.09</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G225" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I225" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="226">
-      <c r="A226" s="5"/>
-      <c r="B226" s="5"/>
-      <c r="C226" s="5"/>
-      <c r="D226" s="5"/>
-      <c r="E226" s="5"/>
-      <c r="F226" s="5"/>
-      <c r="I226" s="5"/>
+      <c r="A226" s="3">
+        <v>44114.0</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E226" s="4">
+        <v>33.54</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G226" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I226" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="227">
-      <c r="A227" s="5"/>
-      <c r="B227" s="5"/>
-      <c r="C227" s="5"/>
-      <c r="D227" s="5"/>
-      <c r="E227" s="5"/>
-      <c r="F227" s="5"/>
-      <c r="I227" s="5"/>
+      <c r="A227" s="11">
+        <v>44114.0</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E227" s="4">
+        <v>17.55</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I227" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="228">
-      <c r="A228" s="5"/>
-      <c r="B228" s="5"/>
-      <c r="C228" s="5"/>
-      <c r="D228" s="5"/>
-      <c r="E228" s="5"/>
-      <c r="F228" s="5"/>
-      <c r="I228" s="5"/>
+      <c r="A228" s="11">
+        <v>44116.0</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E228" s="4">
+        <v>99.0</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I228" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="229">
-      <c r="A229" s="5"/>
-      <c r="B229" s="5"/>
-      <c r="C229" s="5"/>
-      <c r="D229" s="5"/>
-      <c r="E229" s="5"/>
-      <c r="F229" s="5"/>
-      <c r="I229" s="5"/>
+      <c r="A229" s="3">
+        <v>44117.0</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E229" s="4">
+        <v>54.27</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G229" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H229" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I229" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="230">
-      <c r="A230" s="5"/>
-      <c r="B230" s="5"/>
-      <c r="C230" s="5"/>
-      <c r="D230" s="5"/>
-      <c r="E230" s="5"/>
-      <c r="F230" s="5"/>
-      <c r="I230" s="5"/>
+      <c r="A230" s="3">
+        <v>44117.0</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E230" s="4">
+        <v>7.25</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G230" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H230" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I230" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="231">
-      <c r="A231" s="5"/>
-      <c r="B231" s="5"/>
-      <c r="C231" s="5"/>
-      <c r="D231" s="5"/>
-      <c r="E231" s="5"/>
-      <c r="F231" s="5"/>
-      <c r="I231" s="5"/>
+      <c r="A231" s="3">
+        <v>44117.0</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E231" s="4">
+        <v>50.42</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G231" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H231" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="I231" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="232">
-      <c r="A232" s="5"/>
-      <c r="B232" s="5"/>
-      <c r="C232" s="5"/>
-      <c r="D232" s="5"/>
-      <c r="E232" s="5"/>
-      <c r="F232" s="5"/>
-      <c r="I232" s="5"/>
+      <c r="A232" s="3">
+        <v>44117.0</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E232" s="4">
+        <v>46.73</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G232" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H232" s="10"/>
+      <c r="I232" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="233">
-      <c r="A233" s="5"/>
-      <c r="B233" s="5"/>
-      <c r="C233" s="5"/>
-      <c r="D233" s="5"/>
-      <c r="E233" s="5"/>
-      <c r="F233" s="5"/>
-      <c r="I233" s="5"/>
+      <c r="A233" s="3">
+        <v>44117.0</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E233" s="4">
+        <f>43.71-12.62</f>
+        <v>31.09</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G233" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H233" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="I233" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="234">
-      <c r="A234" s="5"/>
-      <c r="B234" s="5"/>
-      <c r="C234" s="5"/>
-      <c r="D234" s="5"/>
-      <c r="E234" s="5"/>
-      <c r="F234" s="5"/>
-      <c r="I234" s="5"/>
+      <c r="A234" s="3">
+        <v>44118.0</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E234" s="4">
+        <f>22.01</f>
+        <v>22.01</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G234" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H234" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I234" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="235">
-      <c r="A235" s="5"/>
-      <c r="B235" s="5"/>
-      <c r="C235" s="5"/>
-      <c r="D235" s="5"/>
-      <c r="E235" s="5"/>
-      <c r="F235" s="5"/>
-      <c r="I235" s="5"/>
+      <c r="A235" s="3">
+        <v>44118.0</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E235" s="4">
+        <f>119.07</f>
+        <v>119.07</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G235" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H235" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="I235" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="236">
-      <c r="A236" s="5"/>
-      <c r="B236" s="5"/>
-      <c r="C236" s="5"/>
-      <c r="D236" s="5"/>
-      <c r="E236" s="5"/>
-      <c r="F236" s="5"/>
-      <c r="I236" s="5"/>
+      <c r="A236" s="3">
+        <v>44118.0</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E236" s="4">
+        <f>10.77</f>
+        <v>10.77</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G236" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H236" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I236" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="237">
-      <c r="A237" s="5"/>
-      <c r="B237" s="5"/>
-      <c r="C237" s="5"/>
-      <c r="D237" s="5"/>
-      <c r="E237" s="5"/>
-      <c r="F237" s="5"/>
-      <c r="I237" s="5"/>
+      <c r="A237" s="11">
+        <v>44118.0</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E237" s="5">
+        <f>13.59+0.4</f>
+        <v>13.99</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H237" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I237" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="238">
-      <c r="A238" s="5"/>
-      <c r="B238" s="5"/>
-      <c r="C238" s="5"/>
-      <c r="D238" s="5"/>
-      <c r="E238" s="5"/>
-      <c r="F238" s="5"/>
-      <c r="I238" s="5"/>
+      <c r="A238" s="11">
+        <v>44119.0</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E238" s="5">
+        <f>13.66 + 1.08</f>
+        <v>14.74</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G238" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H238" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I238" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="239">
-      <c r="A239" s="5"/>
-      <c r="B239" s="5"/>
-      <c r="C239" s="5"/>
-      <c r="D239" s="5"/>
-      <c r="E239" s="5"/>
-      <c r="F239" s="5"/>
-      <c r="I239" s="5"/>
+      <c r="A239" s="11">
+        <v>44119.0</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E239" s="4">
+        <v>39.43</v>
+      </c>
+      <c r="F239" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G239" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I239" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="240">
-      <c r="A240" s="5"/>
-      <c r="B240" s="5"/>
-      <c r="C240" s="5"/>
-      <c r="D240" s="5"/>
-      <c r="E240" s="5"/>
-      <c r="F240" s="5"/>
-      <c r="I240" s="5"/>
+      <c r="A240" s="11">
+        <v>44119.0</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E240" s="4">
+        <v>502.84</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G240" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H240" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I240" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="241">
-      <c r="A241" s="5"/>
-      <c r="B241" s="5"/>
-      <c r="C241" s="5"/>
-      <c r="D241" s="5"/>
-      <c r="E241" s="5"/>
-      <c r="F241" s="5"/>
-      <c r="I241" s="5"/>
+      <c r="A241" s="11">
+        <v>44119.0</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E241" s="4">
+        <v>25.07</v>
+      </c>
+      <c r="F241" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I241" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="242">
-      <c r="A242" s="5"/>
-      <c r="B242" s="5"/>
-      <c r="C242" s="5"/>
-      <c r="D242" s="5"/>
-      <c r="E242" s="5"/>
-      <c r="F242" s="5"/>
-      <c r="I242" s="5"/>
+      <c r="A242" s="11">
+        <v>44119.0</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E242" s="4">
+        <v>4.75</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G242" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="I242" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="243">
-      <c r="A243" s="5"/>
-      <c r="B243" s="5"/>
-      <c r="C243" s="5"/>
-      <c r="D243" s="5"/>
-      <c r="E243" s="5"/>
-      <c r="F243" s="5"/>
-      <c r="I243" s="5"/>
+      <c r="A243" s="11">
+        <v>44119.0</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E243" s="4">
+        <v>12.21</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G243" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I243" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="244">
-      <c r="A244" s="5"/>
-      <c r="B244" s="5"/>
-      <c r="C244" s="5"/>
-      <c r="D244" s="5"/>
-      <c r="E244" s="5"/>
-      <c r="F244" s="5"/>
-      <c r="I244" s="5"/>
+      <c r="A244" s="11">
+        <v>44121.0</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E244" s="4">
+        <v>56.54</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G244" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I244" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="5"/>
@@ -13184,30 +14691,183 @@
       <c r="F1044" s="5"/>
       <c r="I1044" s="5"/>
     </row>
+    <row r="1045">
+      <c r="A1045" s="5"/>
+      <c r="B1045" s="5"/>
+      <c r="C1045" s="5"/>
+      <c r="D1045" s="5"/>
+      <c r="E1045" s="5"/>
+      <c r="F1045" s="5"/>
+      <c r="I1045" s="5"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="5"/>
+      <c r="B1046" s="5"/>
+      <c r="C1046" s="5"/>
+      <c r="D1046" s="5"/>
+      <c r="E1046" s="5"/>
+      <c r="F1046" s="5"/>
+      <c r="I1046" s="5"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="5"/>
+      <c r="B1047" s="5"/>
+      <c r="C1047" s="5"/>
+      <c r="D1047" s="5"/>
+      <c r="E1047" s="5"/>
+      <c r="F1047" s="5"/>
+      <c r="I1047" s="5"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="5"/>
+      <c r="B1048" s="5"/>
+      <c r="C1048" s="5"/>
+      <c r="D1048" s="5"/>
+      <c r="E1048" s="5"/>
+      <c r="F1048" s="5"/>
+      <c r="I1048" s="5"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="5"/>
+      <c r="B1049" s="5"/>
+      <c r="C1049" s="5"/>
+      <c r="D1049" s="5"/>
+      <c r="E1049" s="5"/>
+      <c r="F1049" s="5"/>
+      <c r="I1049" s="5"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="5"/>
+      <c r="B1050" s="5"/>
+      <c r="C1050" s="5"/>
+      <c r="D1050" s="5"/>
+      <c r="E1050" s="5"/>
+      <c r="F1050" s="5"/>
+      <c r="I1050" s="5"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="5"/>
+      <c r="B1051" s="5"/>
+      <c r="C1051" s="5"/>
+      <c r="D1051" s="5"/>
+      <c r="E1051" s="5"/>
+      <c r="F1051" s="5"/>
+      <c r="I1051" s="5"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="5"/>
+      <c r="B1052" s="5"/>
+      <c r="C1052" s="5"/>
+      <c r="D1052" s="5"/>
+      <c r="E1052" s="5"/>
+      <c r="F1052" s="5"/>
+      <c r="I1052" s="5"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="5"/>
+      <c r="B1053" s="5"/>
+      <c r="C1053" s="5"/>
+      <c r="D1053" s="5"/>
+      <c r="E1053" s="5"/>
+      <c r="F1053" s="5"/>
+      <c r="I1053" s="5"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="5"/>
+      <c r="B1054" s="5"/>
+      <c r="C1054" s="5"/>
+      <c r="D1054" s="5"/>
+      <c r="E1054" s="5"/>
+      <c r="F1054" s="5"/>
+      <c r="I1054" s="5"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="5"/>
+      <c r="B1055" s="5"/>
+      <c r="C1055" s="5"/>
+      <c r="D1055" s="5"/>
+      <c r="E1055" s="5"/>
+      <c r="F1055" s="5"/>
+      <c r="I1055" s="5"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="5"/>
+      <c r="B1056" s="5"/>
+      <c r="C1056" s="5"/>
+      <c r="D1056" s="5"/>
+      <c r="E1056" s="5"/>
+      <c r="F1056" s="5"/>
+      <c r="I1056" s="5"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="5"/>
+      <c r="B1057" s="5"/>
+      <c r="C1057" s="5"/>
+      <c r="D1057" s="5"/>
+      <c r="E1057" s="5"/>
+      <c r="F1057" s="5"/>
+      <c r="I1057" s="5"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="5"/>
+      <c r="B1058" s="5"/>
+      <c r="C1058" s="5"/>
+      <c r="D1058" s="5"/>
+      <c r="E1058" s="5"/>
+      <c r="F1058" s="5"/>
+      <c r="I1058" s="5"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="5"/>
+      <c r="B1059" s="5"/>
+      <c r="C1059" s="5"/>
+      <c r="D1059" s="5"/>
+      <c r="E1059" s="5"/>
+      <c r="F1059" s="5"/>
+      <c r="I1059" s="5"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="5"/>
+      <c r="B1060" s="5"/>
+      <c r="C1060" s="5"/>
+      <c r="D1060" s="5"/>
+      <c r="E1060" s="5"/>
+      <c r="F1060" s="5"/>
+      <c r="I1060" s="5"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="5"/>
+      <c r="B1061" s="5"/>
+      <c r="C1061" s="5"/>
+      <c r="D1061" s="5"/>
+      <c r="E1061" s="5"/>
+      <c r="F1061" s="5"/>
+      <c r="I1061" s="5"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I1044">
+    <dataValidation type="list" allowBlank="1" sqref="I2:I1061">
       <formula1>Items!$F$2:$F$1000</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="B2">
       <formula1>Items!$A$2:$A$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1044">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1061">
       <formula1>Items!$C$2:$C$1000</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A117 A119:A1044">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A117 A119:A1061">
       <formula1>OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B3:B1044">
+    <dataValidation type="list" allowBlank="1" sqref="B3:B1061">
       <formula1>"USD,NTD"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E117 E119:E1044">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E117 E119:E1061">
       <formula1>0.0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1044">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C1061">
       <formula1>Items!$B$2:$B$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F1044">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F1061">
       <formula1>Items!$D$2:$D$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -13291,7 +14951,7 @@
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="10"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="11"/>
     </row>
     <row r="3">
@@ -13305,7 +14965,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" s="4">
         <v>18000.44</v>
@@ -13332,10 +14992,10 @@
         <v>1511.51</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -13343,10 +15003,10 @@
         <v>43986.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>19</v>
@@ -13376,10 +15036,10 @@
         <v>2736.82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -13393,16 +15053,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" s="4">
         <v>0.12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8">
@@ -13422,10 +15082,10 @@
         <v>2736.8</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
@@ -13433,10 +15093,10 @@
         <v>44012.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>19</v>
@@ -13445,10 +15105,10 @@
         <v>977.0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10">
@@ -13456,10 +15116,10 @@
         <v>44013.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>19</v>
@@ -13468,10 +15128,10 @@
         <v>3036.0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11">
@@ -13491,10 +15151,10 @@
         <v>2736.82</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -13514,10 +15174,10 @@
         <v>19965.0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13">
@@ -13531,16 +15191,16 @@
         <v>10</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="4">
         <v>0.13</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14">
@@ -13560,10 +15220,10 @@
         <v>2736.81</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -13583,10 +15243,10 @@
         <v>10.55</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16">
@@ -13606,10 +15266,10 @@
         <v>29965.0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17">
@@ -13629,10 +15289,10 @@
         <v>2736.8</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
@@ -13652,10 +15312,10 @@
         <v>23.24</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
@@ -13675,10 +15335,10 @@
         <v>1571.12</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
@@ -13692,49 +15352,111 @@
         <v>10</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" s="4">
         <v>0.3</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="A21" s="3">
+        <v>44095.0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="4">
+        <v>41.64</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="A22" s="3">
+        <v>44096.0</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="4">
+        <f>0.5-0.12</f>
+        <v>0.38</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="A23" s="3">
+        <v>44112.0</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="4">
+        <f>0.04-0.01</f>
+        <v>0.03</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="A24" s="11">
+        <v>44114.0</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5"/>
@@ -21620,28 +23342,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -21679,7 +23401,7 @@
         <v>418.87</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>13</v>
@@ -21690,31 +23412,31 @@
         <v>43999.0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="4">
         <v>844.0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" s="4">
         <v>844.0</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="K3" s="5"/>
     </row>
@@ -21747,7 +23469,7 @@
         <v>700.0</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>13</v>
@@ -21773,7 +23495,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>9</v>
@@ -21812,7 +23534,7 @@
         <v>800.0</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>13</v>
@@ -21838,7 +23560,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>9</v>
@@ -21868,7 +23590,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>9</v>
@@ -21907,7 +23629,7 @@
         <v>800.0</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>13</v>
@@ -21930,10 +23652,10 @@
         <v>260.0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>9</v>
@@ -21972,7 +23694,7 @@
         <v>500.0</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>13</v>
@@ -22007,21 +23729,21 @@
         <v>700.0</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="12">
+      <c r="A13" s="3">
         <v>44076.0</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
@@ -22044,57 +23766,200 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="A14" s="3">
+        <v>44081.0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1000.0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1000.0</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="3">
+        <v>44091.0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4">
+        <v>300.0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="4">
+        <v>300.0</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="K15" s="5"/>
     </row>
     <row r="16">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="A16" s="3">
+        <v>44105.0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3000.0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="4">
+        <v>3000.0</v>
+      </c>
       <c r="K16" s="5"/>
     </row>
     <row r="17">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="A17" s="3">
+        <v>44105.0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1000.0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1000.0</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="K17" s="5"/>
     </row>
     <row r="18">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="A18" s="3">
+        <v>44105.0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="4">
+        <v>510.0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="4">
+        <v>510.0</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="K18" s="5"/>
     </row>
     <row r="19">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="A19" s="3">
+        <v>44105.0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="10">
+        <v>700.0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="10">
+        <v>700.0</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="K19" s="5"/>
     </row>
     <row r="20">
@@ -30976,10 +32841,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -31019,7 +32884,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
@@ -31027,24 +32892,24 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
@@ -31053,12 +32918,12 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
@@ -31069,23 +32934,23 @@
     </row>
     <row r="6">
       <c r="C6" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -31095,7 +32960,7 @@
     </row>
     <row r="10">
       <c r="D10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/MoneyTracking.xlsx
+++ b/MoneyTracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="220">
   <si>
     <t>Date</t>
   </si>
@@ -580,6 +580,18 @@
     <t>Gong Cha</t>
   </si>
   <si>
+    <t>McDonald</t>
+  </si>
+  <si>
+    <t>North Park moving out fee</t>
+  </si>
+  <si>
+    <t>Sony 55" TV</t>
+  </si>
+  <si>
+    <t>rental</t>
+  </si>
+  <si>
     <t>Paycheck/Salary</t>
   </si>
   <si>
@@ -628,6 +640,9 @@
     <t>Unknown refund?</t>
   </si>
   <si>
+    <t>0.41 - 0.1 Federal withholding</t>
+  </si>
+  <si>
     <t>FromBank</t>
   </si>
   <si>
@@ -669,7 +684,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -684,7 +699,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -720,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -747,14 +761,11 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -6559,7 +6570,8 @@
         <v>11</v>
       </c>
       <c r="E211" s="4">
-        <v>934.57</v>
+        <f>934.57-33.9</f>
+        <v>900.67</v>
       </c>
       <c r="F211" s="4" t="s">
         <v>20</v>
@@ -6594,10 +6606,10 @@
       <c r="F212" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G212" s="10" t="s">
+      <c r="G212" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H212" s="10" t="s">
+      <c r="H212" s="4" t="s">
         <v>167</v>
       </c>
       <c r="I212" s="4" t="s">
@@ -6764,7 +6776,7 @@
       <c r="F218" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G218" s="10" t="s">
+      <c r="G218" s="4" t="s">
         <v>170</v>
       </c>
       <c r="I218" s="4" t="s">
@@ -6824,7 +6836,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="11">
+      <c r="A221" s="10">
         <v>44109.0</v>
       </c>
       <c r="B221" s="4" t="s">
@@ -6979,7 +6991,7 @@
       <c r="F226" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G226" s="10" t="s">
+      <c r="G226" s="4" t="s">
         <v>170</v>
       </c>
       <c r="I226" s="4" t="s">
@@ -6987,7 +6999,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="11">
+      <c r="A227" s="10">
         <v>44114.0</v>
       </c>
       <c r="B227" s="4" t="s">
@@ -7013,7 +7025,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="11">
+      <c r="A228" s="10">
         <v>44116.0</v>
       </c>
       <c r="B228" s="4" t="s">
@@ -7057,7 +7069,7 @@
       <c r="F229" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G229" s="10" t="s">
+      <c r="G229" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H229" s="4" t="s">
@@ -7086,10 +7098,10 @@
       <c r="F230" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G230" s="10" t="s">
+      <c r="G230" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H230" s="10" t="s">
+      <c r="H230" s="4" t="s">
         <v>177</v>
       </c>
       <c r="I230" s="4" t="s">
@@ -7115,10 +7127,10 @@
       <c r="F231" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G231" s="10" t="s">
+      <c r="G231" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H231" s="10" t="s">
+      <c r="H231" s="4" t="s">
         <v>178</v>
       </c>
       <c r="I231" s="4" t="s">
@@ -7144,10 +7156,10 @@
       <c r="F232" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G232" s="10" t="s">
+      <c r="G232" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H232" s="10"/>
+      <c r="H232" s="4"/>
       <c r="I232" s="4" t="s">
         <v>13</v>
       </c>
@@ -7172,10 +7184,10 @@
       <c r="F233" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G233" s="10" t="s">
+      <c r="G233" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H233" s="10" t="s">
+      <c r="H233" s="4" t="s">
         <v>179</v>
       </c>
       <c r="I233" s="4" t="s">
@@ -7202,10 +7214,10 @@
       <c r="F234" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G234" s="10" t="s">
+      <c r="G234" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H234" s="10" t="s">
+      <c r="H234" s="4" t="s">
         <v>180</v>
       </c>
       <c r="I234" s="4" t="s">
@@ -7232,10 +7244,10 @@
       <c r="F235" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G235" s="10" t="s">
+      <c r="G235" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H235" s="10" t="s">
+      <c r="H235" s="4" t="s">
         <v>181</v>
       </c>
       <c r="I235" s="4" t="s">
@@ -7262,10 +7274,10 @@
       <c r="F236" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G236" s="10" t="s">
+      <c r="G236" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H236" s="10" t="s">
+      <c r="H236" s="4" t="s">
         <v>182</v>
       </c>
       <c r="I236" s="4" t="s">
@@ -7273,7 +7285,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="11">
+      <c r="A237" s="10">
         <v>44118.0</v>
       </c>
       <c r="B237" s="4" t="s">
@@ -7303,7 +7315,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="11">
+      <c r="A238" s="10">
         <v>44119.0</v>
       </c>
       <c r="B238" s="4" t="s">
@@ -7322,7 +7334,7 @@
       <c r="F238" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G238" s="10" t="s">
+      <c r="G238" s="4" t="s">
         <v>184</v>
       </c>
       <c r="H238" s="4" t="s">
@@ -7333,7 +7345,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="11">
+      <c r="A239" s="10">
         <v>44119.0</v>
       </c>
       <c r="B239" s="4" t="s">
@@ -7359,7 +7371,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="11">
+      <c r="A240" s="10">
         <v>44119.0</v>
       </c>
       <c r="B240" s="4" t="s">
@@ -7388,7 +7400,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="11">
+      <c r="A241" s="10">
         <v>44119.0</v>
       </c>
       <c r="B241" s="4" t="s">
@@ -7414,7 +7426,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="11">
+      <c r="A242" s="10">
         <v>44119.0</v>
       </c>
       <c r="B242" s="4" t="s">
@@ -7432,7 +7444,7 @@
       <c r="F242" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G242" s="10" t="s">
+      <c r="G242" s="4" t="s">
         <v>187</v>
       </c>
       <c r="I242" s="4" t="s">
@@ -7440,7 +7452,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="11">
+      <c r="A243" s="10">
         <v>44119.0</v>
       </c>
       <c r="B243" s="4" t="s">
@@ -7458,7 +7470,7 @@
       <c r="F243" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G243" s="10" t="s">
+      <c r="G243" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I243" s="4" t="s">
@@ -7466,7 +7478,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="11">
+      <c r="A244" s="10">
         <v>44121.0</v>
       </c>
       <c r="B244" s="4" t="s">
@@ -7492,121 +7504,346 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="5"/>
-      <c r="B245" s="5"/>
-      <c r="C245" s="5"/>
-      <c r="D245" s="5"/>
-      <c r="E245" s="5"/>
-      <c r="F245" s="5"/>
-      <c r="I245" s="5"/>
+      <c r="A245" s="10">
+        <v>44123.0</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E245" s="4">
+        <v>36.26</v>
+      </c>
+      <c r="F245" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G245" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I245" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="246">
-      <c r="A246" s="5"/>
-      <c r="B246" s="5"/>
-      <c r="C246" s="5"/>
-      <c r="D246" s="5"/>
-      <c r="E246" s="5"/>
-      <c r="F246" s="5"/>
-      <c r="I246" s="5"/>
+      <c r="A246" s="10">
+        <v>44124.0</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E246" s="4">
+        <v>31.58</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G246" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I246" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="247">
-      <c r="A247" s="5"/>
-      <c r="B247" s="5"/>
-      <c r="C247" s="5"/>
-      <c r="D247" s="5"/>
-      <c r="E247" s="5"/>
-      <c r="F247" s="5"/>
-      <c r="I247" s="5"/>
+      <c r="A247" s="10">
+        <v>44125.0</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E247" s="4">
+        <v>62.45</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G247" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I247" s="4"/>
     </row>
     <row r="248">
-      <c r="A248" s="5"/>
-      <c r="B248" s="5"/>
-      <c r="C248" s="5"/>
-      <c r="D248" s="5"/>
-      <c r="E248" s="5"/>
-      <c r="F248" s="5"/>
-      <c r="I248" s="5"/>
+      <c r="A248" s="10">
+        <v>44126.0</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E248" s="4">
+        <v>97.63</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G248" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I248" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="249">
-      <c r="A249" s="5"/>
-      <c r="B249" s="5"/>
-      <c r="C249" s="5"/>
-      <c r="D249" s="5"/>
-      <c r="E249" s="5"/>
-      <c r="F249" s="5"/>
-      <c r="I249" s="5"/>
+      <c r="A249" s="10">
+        <v>44126.0</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E249" s="4">
+        <v>19.88</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G249" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I249" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="250">
-      <c r="A250" s="5"/>
-      <c r="B250" s="5"/>
-      <c r="C250" s="5"/>
-      <c r="D250" s="5"/>
-      <c r="E250" s="5"/>
-      <c r="F250" s="5"/>
-      <c r="I250" s="5"/>
+      <c r="A250" s="10">
+        <v>44126.0</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E250" s="4">
+        <v>174.72</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G250" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I250" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="251">
-      <c r="A251" s="5"/>
-      <c r="B251" s="5"/>
-      <c r="C251" s="5"/>
-      <c r="D251" s="5"/>
-      <c r="E251" s="5"/>
-      <c r="F251" s="5"/>
-      <c r="I251" s="5"/>
+      <c r="A251" s="10">
+        <v>44127.0</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E251" s="4">
+        <v>21.86</v>
+      </c>
+      <c r="F251" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G251" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I251" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="252">
-      <c r="A252" s="5"/>
-      <c r="B252" s="5"/>
-      <c r="C252" s="5"/>
-      <c r="D252" s="5"/>
-      <c r="E252" s="5"/>
-      <c r="F252" s="5"/>
-      <c r="I252" s="5"/>
+      <c r="A252" s="10">
+        <v>44130.0</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E252" s="4">
+        <v>628.72</v>
+      </c>
+      <c r="F252" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G252" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H252" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I252" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="253">
-      <c r="A253" s="5"/>
-      <c r="B253" s="5"/>
-      <c r="C253" s="5"/>
-      <c r="D253" s="5"/>
-      <c r="E253" s="5"/>
-      <c r="F253" s="5"/>
-      <c r="I253" s="5"/>
+      <c r="A253" s="10">
+        <v>44132.0</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E253" s="4">
+        <v>20.64</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G253" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I253" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="254">
-      <c r="A254" s="5"/>
-      <c r="B254" s="5"/>
-      <c r="C254" s="5"/>
-      <c r="D254" s="5"/>
-      <c r="E254" s="5"/>
-      <c r="F254" s="5"/>
-      <c r="I254" s="5"/>
+      <c r="A254" s="10">
+        <v>44134.0</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E254" s="4">
+        <v>104.48</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G254" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I254" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="255">
-      <c r="A255" s="5"/>
-      <c r="B255" s="5"/>
-      <c r="C255" s="5"/>
-      <c r="D255" s="5"/>
-      <c r="E255" s="5"/>
-      <c r="F255" s="5"/>
-      <c r="I255" s="5"/>
+      <c r="A255" s="10">
+        <v>44135.0</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E255" s="4">
+        <v>5.44</v>
+      </c>
+      <c r="F255" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G255" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I255" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="256">
-      <c r="A256" s="5"/>
-      <c r="B256" s="5"/>
-      <c r="C256" s="5"/>
-      <c r="D256" s="5"/>
-      <c r="E256" s="5"/>
-      <c r="F256" s="5"/>
-      <c r="I256" s="5"/>
+      <c r="A256" s="10">
+        <v>44135.0</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E256" s="4">
+        <v>16.88</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G256" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I256" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="257">
-      <c r="A257" s="5"/>
-      <c r="B257" s="5"/>
-      <c r="C257" s="5"/>
-      <c r="D257" s="5"/>
-      <c r="E257" s="5"/>
-      <c r="F257" s="5"/>
-      <c r="I257" s="5"/>
+      <c r="A257" s="10">
+        <v>44135.0</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E257" s="4">
+        <v>3206.71</v>
+      </c>
+      <c r="F257" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G257" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H257" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I257" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="5"/>
@@ -14844,30 +15081,39 @@
       <c r="F1061" s="5"/>
       <c r="I1061" s="5"/>
     </row>
+    <row r="1062">
+      <c r="A1062" s="5"/>
+      <c r="B1062" s="5"/>
+      <c r="C1062" s="5"/>
+      <c r="D1062" s="5"/>
+      <c r="E1062" s="5"/>
+      <c r="F1062" s="5"/>
+      <c r="I1062" s="5"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I1061">
+    <dataValidation type="list" allowBlank="1" sqref="I2:I1062">
       <formula1>Items!$F$2:$F$1000</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="B2">
       <formula1>Items!$A$2:$A$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1061">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1062">
       <formula1>Items!$C$2:$C$1000</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A117 A119:A1061">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A117 A119:A1062">
       <formula1>OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B3:B1061">
+    <dataValidation type="list" allowBlank="1" sqref="B3:B1062">
       <formula1>"USD,NTD"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E117 E119:E1061">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E117 E119:E1062">
       <formula1>0.0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1061">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C1062">
       <formula1>Items!$B$2:$B$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F1061">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F1062">
       <formula1>Items!$D$2:$D$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -14951,8 +15197,8 @@
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3">
       <c r="A3" s="3">
@@ -14992,7 +15238,7 @@
         <v>1511.51</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>57</v>
@@ -15036,7 +15282,7 @@
         <v>2736.82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>57</v>
@@ -15059,10 +15305,10 @@
         <v>0.12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8">
@@ -15082,7 +15328,7 @@
         <v>2736.8</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>57</v>
@@ -15105,10 +15351,10 @@
         <v>977.0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10">
@@ -15128,10 +15374,10 @@
         <v>3036.0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11">
@@ -15151,7 +15397,7 @@
         <v>2736.82</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>57</v>
@@ -15174,10 +15420,10 @@
         <v>19965.0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13">
@@ -15197,10 +15443,10 @@
         <v>0.13</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14">
@@ -15220,7 +15466,7 @@
         <v>2736.81</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>57</v>
@@ -15243,10 +15489,10 @@
         <v>10.55</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16">
@@ -15266,10 +15512,10 @@
         <v>29965.0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17">
@@ -15289,7 +15535,7 @@
         <v>2736.8</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>57</v>
@@ -15312,10 +15558,10 @@
         <v>23.24</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
@@ -15335,7 +15581,7 @@
         <v>1571.12</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>57</v>
@@ -15358,10 +15604,10 @@
         <v>0.3</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
@@ -15381,10 +15627,10 @@
         <v>41.64</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
@@ -15405,10 +15651,10 @@
         <v>0.38</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23">
@@ -15429,14 +15675,14 @@
         <v>0.03</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>44114.0</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -15452,19 +15698,35 @@
         <v>3.6</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="A25" s="10">
+        <v>44126.0</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="5">
+        <f>0.41-0.1</f>
+        <v>0.31</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5"/>
@@ -23342,28 +23604,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -23401,7 +23663,7 @@
         <v>418.87</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>13</v>
@@ -23436,7 +23698,7 @@
         <v>844.0</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K3" s="5"/>
     </row>
@@ -23469,7 +23731,7 @@
         <v>700.0</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>13</v>
@@ -23534,7 +23796,7 @@
         <v>800.0</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>13</v>
@@ -23629,7 +23891,7 @@
         <v>800.0</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>13</v>
@@ -23694,7 +23956,7 @@
         <v>500.0</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>13</v>
@@ -23729,7 +23991,7 @@
         <v>700.0</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>13</v>
@@ -23794,7 +24056,7 @@
         <v>1000.0</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>13</v>
@@ -23829,7 +24091,7 @@
         <v>300.0</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K15" s="5"/>
     </row>
@@ -23892,7 +24154,7 @@
         <v>1000.0</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K17" s="5"/>
     </row>
@@ -23925,13 +24187,13 @@
         <v>510.0</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="3">
-        <v>44105.0</v>
+      <c r="A19" s="10">
+        <v>44123.0</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>10</v>
@@ -23942,7 +24204,7 @@
       <c r="D19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="4">
         <v>700.0</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -23954,30 +24216,75 @@
       <c r="H19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="4">
         <v>700.0</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K19" s="5"/>
     </row>
     <row r="20">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="A20" s="10">
+        <v>44132.0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4000.0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="4">
+        <v>4000.0</v>
+      </c>
       <c r="K20" s="5"/>
     </row>
     <row r="21">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="A21" s="10">
+        <v>44132.0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4">
+        <v>850.0</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="4">
+        <v>850.0</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="K21" s="5"/>
     </row>
     <row r="22">
@@ -32782,24 +33089,15 @@
       <c r="H999" s="5"/>
       <c r="K999" s="5"/>
     </row>
-    <row r="1000">
-      <c r="B1000" s="5"/>
-      <c r="C1000" s="5"/>
-      <c r="D1000" s="5"/>
-      <c r="F1000" s="5"/>
-      <c r="G1000" s="5"/>
-      <c r="H1000" s="5"/>
-      <c r="K1000" s="5"/>
-    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="K2:K1000">
+    <dataValidation type="list" allowBlank="1" sqref="K2:K999">
       <formula1>Items!$F$2:$F$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1000 H2:H1000">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D999 H2:H999">
       <formula1>Items!$A$2:$A$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1000 G2:G1000">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C999 G2:G999">
       <formula1>Items!$C$2:$C$1000</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A5">
@@ -32808,7 +33106,7 @@
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E4 I2:I4">
       <formula1>0.0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B2:B1000 F2:F1000">
+    <dataValidation type="list" allowBlank="1" sqref="B2:B999 F2:F999">
       <formula1>Items!$B$2:$B$1000</formula1>
     </dataValidation>
   </dataValidations>
@@ -32841,10 +33139,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -32880,11 +33178,11 @@
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
@@ -32904,7 +33202,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
@@ -32918,7 +33216,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5">
@@ -32940,7 +33238,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7">
@@ -32949,7 +33247,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>71</v>
       </c>
     </row>

--- a/MoneyTracking.xlsx
+++ b/MoneyTracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="228">
   <si>
     <t>Date</t>
   </si>
@@ -589,7 +589,28 @@
     <t>Sony 55" TV</t>
   </si>
   <si>
+    <t>knife sharpener</t>
+  </si>
+  <si>
+    <t>Freebies</t>
+  </si>
+  <si>
     <t>rental</t>
+  </si>
+  <si>
+    <t>Postage stamps * 20</t>
+  </si>
+  <si>
+    <t>UCSIS OPT I-785</t>
+  </si>
+  <si>
+    <t>plastic wheels</t>
+  </si>
+  <si>
+    <t>refunded</t>
+  </si>
+  <si>
+    <t>airpods pro</t>
   </si>
   <si>
     <t>Paycheck/Salary</t>
@@ -641,6 +662,9 @@
   </si>
   <si>
     <t>0.41 - 0.1 Federal withholding</t>
+  </si>
+  <si>
+    <t>redeem cash rewards</t>
   </si>
   <si>
     <t>FromBank</t>
@@ -7505,7 +7529,7 @@
     </row>
     <row r="245">
       <c r="A245" s="10">
-        <v>44123.0</v>
+        <v>44121.0</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>9</v>
@@ -7514,16 +7538,16 @@
         <v>10</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E245" s="4">
-        <v>36.26</v>
+        <v>26.0</v>
       </c>
       <c r="F245" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="I245" s="4" t="s">
         <v>13</v>
@@ -7531,7 +7555,7 @@
     </row>
     <row r="246">
       <c r="A246" s="10">
-        <v>44124.0</v>
+        <v>44123.0</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>9</v>
@@ -7543,7 +7567,7 @@
         <v>11</v>
       </c>
       <c r="E246" s="4">
-        <v>31.58</v>
+        <v>36.26</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>16</v>
@@ -7557,7 +7581,7 @@
     </row>
     <row r="247">
       <c r="A247" s="10">
-        <v>44125.0</v>
+        <v>44124.0</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>9</v>
@@ -7566,22 +7590,24 @@
         <v>10</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E247" s="4">
-        <v>62.45</v>
+        <v>31.58</v>
       </c>
       <c r="F247" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I247" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="I247" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="10">
-        <v>44126.0</v>
+        <v>44125.0</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>9</v>
@@ -7590,20 +7616,18 @@
         <v>10</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E248" s="4">
-        <v>97.63</v>
+        <v>62.45</v>
       </c>
       <c r="F248" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I248" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I248" s="4"/>
     </row>
     <row r="249">
       <c r="A249" s="10">
@@ -7619,13 +7643,13 @@
         <v>11</v>
       </c>
       <c r="E249" s="4">
-        <v>19.88</v>
+        <v>97.63</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="I249" s="4" t="s">
         <v>13</v>
@@ -7642,16 +7666,16 @@
         <v>10</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E250" s="4">
-        <v>174.72</v>
+        <v>19.88</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I250" s="4" t="s">
         <v>13</v>
@@ -7659,7 +7683,7 @@
     </row>
     <row r="251">
       <c r="A251" s="10">
-        <v>44127.0</v>
+        <v>44126.0</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>9</v>
@@ -7668,16 +7692,16 @@
         <v>10</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E251" s="4">
-        <v>21.86</v>
+        <v>174.72</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="I251" s="4" t="s">
         <v>13</v>
@@ -7685,7 +7709,7 @@
     </row>
     <row r="252">
       <c r="A252" s="10">
-        <v>44130.0</v>
+        <v>44127.0</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>9</v>
@@ -7697,16 +7721,13 @@
         <v>11</v>
       </c>
       <c r="E252" s="4">
-        <v>628.72</v>
+        <v>21.86</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H252" s="4" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="I252" s="4" t="s">
         <v>13</v>
@@ -7714,7 +7735,7 @@
     </row>
     <row r="253">
       <c r="A253" s="10">
-        <v>44132.0</v>
+        <v>44130.0</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>9</v>
@@ -7726,13 +7747,17 @@
         <v>11</v>
       </c>
       <c r="E253" s="4">
-        <v>20.64</v>
+        <f>628.72-54.63</f>
+        <v>574.09</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="H253" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="I253" s="4" t="s">
         <v>13</v>
@@ -7740,7 +7765,7 @@
     </row>
     <row r="254">
       <c r="A254" s="10">
-        <v>44134.0</v>
+        <v>44131.0</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>9</v>
@@ -7749,24 +7774,31 @@
         <v>10</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E254" s="4">
-        <v>104.48</v>
+        <f>15.56-15.56</f>
+        <v>0</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>43</v>
+        <v>57</v>
+      </c>
+      <c r="H254" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="I254" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="J254" s="4" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="10">
-        <v>44135.0</v>
+        <v>44132.0</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>9</v>
@@ -7778,13 +7810,13 @@
         <v>11</v>
       </c>
       <c r="E255" s="4">
-        <v>5.44</v>
+        <v>20.64</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I255" s="4" t="s">
         <v>13</v>
@@ -7792,7 +7824,7 @@
     </row>
     <row r="256">
       <c r="A256" s="10">
-        <v>44135.0</v>
+        <v>44134.0</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>9</v>
@@ -7804,13 +7836,13 @@
         <v>11</v>
       </c>
       <c r="E256" s="4">
-        <v>16.88</v>
+        <v>104.48</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="I256" s="4" t="s">
         <v>13</v>
@@ -7827,131 +7859,354 @@
         <v>10</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E257" s="4">
-        <v>3206.71</v>
+        <v>5.44</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H257" s="4" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="I257" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="5"/>
-      <c r="B258" s="5"/>
-      <c r="C258" s="5"/>
-      <c r="D258" s="5"/>
-      <c r="E258" s="5"/>
-      <c r="F258" s="5"/>
-      <c r="I258" s="5"/>
+      <c r="A258" s="10">
+        <v>44135.0</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E258" s="4">
+        <v>16.88</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G258" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I258" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="259">
-      <c r="A259" s="5"/>
-      <c r="B259" s="5"/>
-      <c r="C259" s="5"/>
-      <c r="D259" s="5"/>
-      <c r="E259" s="5"/>
-      <c r="F259" s="5"/>
-      <c r="I259" s="5"/>
+      <c r="A259" s="10">
+        <v>44135.0</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E259" s="4">
+        <v>3206.71</v>
+      </c>
+      <c r="F259" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G259" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H259" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="I259" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="260">
-      <c r="A260" s="5"/>
-      <c r="B260" s="5"/>
-      <c r="C260" s="5"/>
-      <c r="D260" s="5"/>
-      <c r="E260" s="5"/>
-      <c r="F260" s="5"/>
-      <c r="I260" s="5"/>
+      <c r="A260" s="10">
+        <v>44135.0</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E260" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="F260" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G260" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I260" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="261">
-      <c r="A261" s="5"/>
-      <c r="B261" s="5"/>
-      <c r="C261" s="5"/>
-      <c r="D261" s="5"/>
-      <c r="E261" s="5"/>
-      <c r="F261" s="5"/>
-      <c r="I261" s="5"/>
+      <c r="A261" s="3">
+        <v>44137.0</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E261" s="4">
+        <v>76.68</v>
+      </c>
+      <c r="F261" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G261" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H261" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I261" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="262">
-      <c r="A262" s="5"/>
-      <c r="B262" s="5"/>
-      <c r="C262" s="5"/>
-      <c r="D262" s="5"/>
-      <c r="E262" s="5"/>
-      <c r="F262" s="5"/>
-      <c r="I262" s="5"/>
+      <c r="A262" s="3">
+        <v>44137.0</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E262" s="4">
+        <v>5.09</v>
+      </c>
+      <c r="F262" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G262" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H262" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I262" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="263">
-      <c r="A263" s="5"/>
-      <c r="B263" s="5"/>
-      <c r="C263" s="5"/>
-      <c r="D263" s="5"/>
-      <c r="E263" s="5"/>
-      <c r="F263" s="5"/>
-      <c r="I263" s="5"/>
+      <c r="A263" s="3">
+        <v>44137.0</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E263" s="4">
+        <f>58.58-9.83</f>
+        <v>48.75</v>
+      </c>
+      <c r="F263" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G263" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H263" s="4"/>
+      <c r="I263" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="264">
-      <c r="A264" s="5"/>
-      <c r="B264" s="5"/>
-      <c r="C264" s="5"/>
-      <c r="D264" s="5"/>
-      <c r="E264" s="5"/>
-      <c r="F264" s="5"/>
-      <c r="I264" s="5"/>
+      <c r="A264" s="3">
+        <v>44137.0</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E264" s="4">
+        <v>410.0</v>
+      </c>
+      <c r="F264" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G264" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I264" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="265">
-      <c r="A265" s="5"/>
-      <c r="B265" s="5"/>
-      <c r="C265" s="5"/>
-      <c r="D265" s="5"/>
-      <c r="E265" s="5"/>
-      <c r="F265" s="5"/>
-      <c r="I265" s="5"/>
+      <c r="A265" s="3">
+        <v>44138.0</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E265" s="4">
+        <v>22.16</v>
+      </c>
+      <c r="F265" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G265" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H265" s="4"/>
+      <c r="I265" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="266">
-      <c r="A266" s="5"/>
-      <c r="B266" s="5"/>
-      <c r="C266" s="5"/>
-      <c r="D266" s="5"/>
-      <c r="E266" s="5"/>
-      <c r="F266" s="5"/>
-      <c r="I266" s="5"/>
+      <c r="A266" s="10">
+        <v>44131.0</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E266" s="4">
+        <f>7.64-7.64</f>
+        <v>0</v>
+      </c>
+      <c r="F266" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G266" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H266" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I266" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J266" s="4" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="267">
-      <c r="A267" s="5"/>
-      <c r="B267" s="5"/>
-      <c r="C267" s="5"/>
-      <c r="D267" s="5"/>
-      <c r="E267" s="5"/>
-      <c r="F267" s="5"/>
-      <c r="I267" s="5"/>
+      <c r="A267" s="3">
+        <v>44141.0</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E267" s="4">
+        <v>108.56</v>
+      </c>
+      <c r="F267" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G267" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I267" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="268">
-      <c r="A268" s="5"/>
-      <c r="B268" s="5"/>
-      <c r="C268" s="5"/>
-      <c r="D268" s="5"/>
-      <c r="E268" s="5"/>
-      <c r="F268" s="5"/>
-      <c r="I268" s="5"/>
+      <c r="A268" s="3">
+        <v>44142.0</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E268" s="4">
+        <v>218.48</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G268" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H268" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I268" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="269">
-      <c r="A269" s="5"/>
-      <c r="B269" s="5"/>
-      <c r="C269" s="5"/>
-      <c r="D269" s="5"/>
-      <c r="E269" s="5"/>
-      <c r="F269" s="5"/>
-      <c r="I269" s="5"/>
+      <c r="A269" s="3">
+        <v>44143.0</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E269" s="4">
+        <v>42.59</v>
+      </c>
+      <c r="F269" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G269" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I269" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="5"/>
@@ -15090,30 +15345,57 @@
       <c r="F1062" s="5"/>
       <c r="I1062" s="5"/>
     </row>
+    <row r="1063">
+      <c r="A1063" s="5"/>
+      <c r="B1063" s="5"/>
+      <c r="C1063" s="5"/>
+      <c r="D1063" s="5"/>
+      <c r="E1063" s="5"/>
+      <c r="F1063" s="5"/>
+      <c r="I1063" s="5"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="5"/>
+      <c r="B1064" s="5"/>
+      <c r="C1064" s="5"/>
+      <c r="D1064" s="5"/>
+      <c r="E1064" s="5"/>
+      <c r="F1064" s="5"/>
+      <c r="I1064" s="5"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="5"/>
+      <c r="B1065" s="5"/>
+      <c r="C1065" s="5"/>
+      <c r="D1065" s="5"/>
+      <c r="E1065" s="5"/>
+      <c r="F1065" s="5"/>
+      <c r="I1065" s="5"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I1062">
+    <dataValidation type="list" allowBlank="1" sqref="I2:I1065">
       <formula1>Items!$F$2:$F$1000</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="B2">
       <formula1>Items!$A$2:$A$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1062">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1065">
       <formula1>Items!$C$2:$C$1000</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A117 A119:A1062">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A117 A119:A1065">
       <formula1>OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B3:B1062">
+    <dataValidation type="list" allowBlank="1" sqref="B3:B1065">
       <formula1>"USD,NTD"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E117 E119:E1062">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="E2:E117 E119:E1065">
       <formula1>0.0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1062">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C1065">
       <formula1>Items!$B$2:$B$1000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F1062">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F1065">
       <formula1>Items!$D$2:$D$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -15238,7 +15520,7 @@
         <v>1511.51</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>57</v>
@@ -15282,7 +15564,7 @@
         <v>2736.82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>57</v>
@@ -15305,10 +15587,10 @@
         <v>0.12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8">
@@ -15328,7 +15610,7 @@
         <v>2736.8</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>57</v>
@@ -15351,10 +15633,10 @@
         <v>977.0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10">
@@ -15374,10 +15656,10 @@
         <v>3036.0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11">
@@ -15397,7 +15679,7 @@
         <v>2736.82</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>57</v>
@@ -15420,10 +15702,10 @@
         <v>19965.0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13">
@@ -15443,10 +15725,10 @@
         <v>0.13</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14">
@@ -15466,7 +15748,7 @@
         <v>2736.81</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>57</v>
@@ -15489,10 +15771,10 @@
         <v>10.55</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16">
@@ -15512,10 +15794,10 @@
         <v>29965.0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17">
@@ -15535,7 +15817,7 @@
         <v>2736.8</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>57</v>
@@ -15558,10 +15840,10 @@
         <v>23.24</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
@@ -15581,7 +15863,7 @@
         <v>1571.12</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>57</v>
@@ -15604,10 +15886,10 @@
         <v>0.3</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
@@ -15627,10 +15909,10 @@
         <v>41.64</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
@@ -15651,10 +15933,10 @@
         <v>0.38</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23">
@@ -15675,10 +15957,10 @@
         <v>0.03</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
@@ -15698,10 +15980,10 @@
         <v>3.6</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25">
@@ -15722,19 +16004,34 @@
         <v>0.31</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="A26" s="3">
+        <v>44143.0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="4">
+        <v>78.71</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5"/>
@@ -23604,28 +23901,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -23663,7 +23960,7 @@
         <v>418.87</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>13</v>
@@ -23698,7 +23995,7 @@
         <v>844.0</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K3" s="5"/>
     </row>
@@ -23731,7 +24028,7 @@
         <v>700.0</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>13</v>
@@ -23796,7 +24093,7 @@
         <v>800.0</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>13</v>
@@ -23891,7 +24188,7 @@
         <v>800.0</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>13</v>
@@ -23956,7 +24253,7 @@
         <v>500.0</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>13</v>
@@ -23991,7 +24288,7 @@
         <v>700.0</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>13</v>
@@ -24056,7 +24353,7 @@
         <v>1000.0</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>13</v>
@@ -24091,7 +24388,7 @@
         <v>300.0</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K15" s="5"/>
     </row>
@@ -24154,7 +24451,7 @@
         <v>1000.0</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K17" s="5"/>
     </row>
@@ -24187,7 +24484,7 @@
         <v>510.0</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K18" s="5"/>
     </row>
@@ -24220,7 +24517,7 @@
         <v>700.0</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K19" s="5"/>
     </row>
@@ -24283,17 +24580,41 @@
         <v>850.0</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K21" s="5"/>
     </row>
     <row r="22">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="A22" s="3">
+        <v>44140.0</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="4">
+        <v>250.0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="4">
+        <v>250.0</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="K22" s="5"/>
     </row>
     <row r="23">
@@ -33139,10 +33460,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -33182,7 +33503,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
@@ -33202,7 +33523,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4">
@@ -33216,7 +33537,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -33238,7 +33559,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7">
